--- a/data/trans_orig/P05A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0D233E2B-5E18-4830-8C2B-3B99DC53B2BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93919C1-B5D3-48FB-804D-CE70F2D99D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{23756C64-1A9C-4060-BA67-60C360A19DB4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9410DFD2-89AD-4C62-88BB-6748ADCA2EC7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="727">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="726">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -77,28 +77,28 @@
     <t>55,37%</t>
   </si>
   <si>
-    <t>50,54%</t>
-  </si>
-  <si>
-    <t>59,76%</t>
+    <t>50,75%</t>
+  </si>
+  <si>
+    <t>59,51%</t>
   </si>
   <si>
     <t>53,11%</t>
   </si>
   <si>
-    <t>48,94%</t>
-  </si>
-  <si>
-    <t>57,66%</t>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>57,61%</t>
   </si>
   <si>
     <t>54,27%</t>
   </si>
   <si>
-    <t>51,28%</t>
-  </si>
-  <si>
-    <t>57,48%</t>
+    <t>51,39%</t>
+  </si>
+  <si>
+    <t>57,65%</t>
   </si>
   <si>
     <t>Algo</t>
@@ -107,28 +107,28 @@
     <t>37,18%</t>
   </si>
   <si>
-    <t>33,18%</t>
-  </si>
-  <si>
-    <t>42,53%</t>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
   </si>
   <si>
     <t>35,89%</t>
   </si>
   <si>
-    <t>31,62%</t>
-  </si>
-  <si>
-    <t>40,43%</t>
+    <t>32,01%</t>
+  </si>
+  <si>
+    <t>40,41%</t>
   </si>
   <si>
     <t>36,55%</t>
   </si>
   <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>39,8%</t>
+    <t>33,6%</t>
+  </si>
+  <si>
+    <t>39,53%</t>
   </si>
   <si>
     <t>Mucho</t>
@@ -137,2089 +137,2086 @@
     <t>7,45%</t>
   </si>
   <si>
-    <t>5,45%</t>
-  </si>
-  <si>
-    <t>10,11%</t>
+    <t>5,21%</t>
+  </si>
+  <si>
+    <t>9,88%</t>
   </si>
   <si>
     <t>11,0%</t>
   </si>
   <si>
-    <t>8,29%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
   </si>
   <si>
     <t>9,17%</t>
   </si>
   <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>25/34</t>
+  </si>
+  <si>
+    <t>54,2%</t>
+  </si>
+  <si>
+    <t>50,33%</t>
+  </si>
+  <si>
+    <t>57,9%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>42,55%</t>
+  </si>
+  <si>
+    <t>51,1%</t>
+  </si>
+  <si>
+    <t>50,92%</t>
+  </si>
+  <si>
+    <t>48,24%</t>
+  </si>
+  <si>
+    <t>53,47%</t>
+  </si>
+  <si>
+    <t>35,82%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
+  </si>
+  <si>
+    <t>39,56%</t>
+  </si>
+  <si>
+    <t>41,17%</t>
+  </si>
+  <si>
+    <t>37,38%</t>
+  </si>
+  <si>
+    <t>45,47%</t>
+  </si>
+  <si>
+    <t>38,28%</t>
+  </si>
+  <si>
+    <t>35,62%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>12,68%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>14,64%</t>
+  </si>
+  <si>
+    <t>10,79%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,6%</t>
+  </si>
+  <si>
+    <t>35/44</t>
+  </si>
+  <si>
+    <t>53,34%</t>
+  </si>
+  <si>
+    <t>49,08%</t>
+  </si>
+  <si>
+    <t>57,39%</t>
+  </si>
+  <si>
+    <t>49,46%</t>
+  </si>
+  <si>
+    <t>45,73%</t>
+  </si>
+  <si>
+    <t>53,3%</t>
+  </si>
+  <si>
+    <t>51,32%</t>
+  </si>
+  <si>
+    <t>48,6%</t>
+  </si>
+  <si>
+    <t>54,08%</t>
+  </si>
+  <si>
+    <t>37,45%</t>
+  </si>
+  <si>
+    <t>33,54%</t>
+  </si>
+  <si>
+    <t>41,65%</t>
+  </si>
+  <si>
+    <t>34,77%</t>
+  </si>
+  <si>
+    <t>31,13%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>36,06%</t>
+  </si>
+  <si>
+    <t>33,57%</t>
+  </si>
+  <si>
+    <t>38,8%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>11,51%</t>
+  </si>
+  <si>
+    <t>15,77%</t>
+  </si>
+  <si>
+    <t>13,21%</t>
+  </si>
+  <si>
+    <t>19,03%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>14,61%</t>
+  </si>
+  <si>
+    <t>45/54</t>
+  </si>
+  <si>
+    <t>52,07%</t>
+  </si>
+  <si>
+    <t>47,51%</t>
+  </si>
+  <si>
+    <t>56,91%</t>
+  </si>
+  <si>
+    <t>52,6%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>57,08%</t>
+  </si>
+  <si>
+    <t>52,33%</t>
+  </si>
+  <si>
+    <t>49,32%</t>
+  </si>
+  <si>
+    <t>55,51%</t>
+  </si>
+  <si>
+    <t>37,06%</t>
+  </si>
+  <si>
+    <t>32,57%</t>
+  </si>
+  <si>
+    <t>41,5%</t>
+  </si>
+  <si>
+    <t>33,61%</t>
+  </si>
+  <si>
+    <t>29,25%</t>
+  </si>
+  <si>
+    <t>37,72%</t>
+  </si>
+  <si>
+    <t>35,34%</t>
+  </si>
+  <si>
+    <t>32,29%</t>
+  </si>
+  <si>
+    <t>38,15%</t>
+  </si>
+  <si>
+    <t>10,87%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>13,69%</t>
+  </si>
+  <si>
+    <t>13,79%</t>
+  </si>
+  <si>
+    <t>10,76%</t>
+  </si>
+  <si>
+    <t>16,92%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>10,34%</t>
+  </si>
+  <si>
+    <t>14,59%</t>
+  </si>
+  <si>
+    <t>55/64</t>
+  </si>
+  <si>
+    <t>51,71%</t>
+  </si>
+  <si>
+    <t>46,62%</t>
+  </si>
+  <si>
+    <t>56,65%</t>
+  </si>
+  <si>
+    <t>51,3%</t>
+  </si>
+  <si>
+    <t>46,59%</t>
+  </si>
+  <si>
+    <t>56,37%</t>
+  </si>
+  <si>
+    <t>51,5%</t>
+  </si>
+  <si>
+    <t>47,91%</t>
+  </si>
+  <si>
+    <t>54,9%</t>
+  </si>
+  <si>
+    <t>35,88%</t>
+  </si>
+  <si>
+    <t>31,23%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>28,5%</t>
+  </si>
+  <si>
+    <t>37,59%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>31,24%</t>
+  </si>
+  <si>
+    <t>37,67%</t>
+  </si>
+  <si>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>16,11%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>12,39%</t>
+  </si>
+  <si>
+    <t>19,68%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>11,56%</t>
+  </si>
+  <si>
+    <t>16,73%</t>
+  </si>
+  <si>
+    <t>65 y más</t>
+  </si>
+  <si>
+    <t>49,56%</t>
+  </si>
+  <si>
+    <t>45,36%</t>
+  </si>
+  <si>
+    <t>54,0%</t>
+  </si>
+  <si>
+    <t>49,83%</t>
+  </si>
+  <si>
+    <t>46,13%</t>
+  </si>
+  <si>
+    <t>53,68%</t>
+  </si>
+  <si>
+    <t>49,72%</t>
+  </si>
+  <si>
+    <t>47,01%</t>
+  </si>
+  <si>
+    <t>52,67%</t>
+  </si>
+  <si>
+    <t>39,74%</t>
+  </si>
+  <si>
+    <t>44,07%</t>
+  </si>
+  <si>
+    <t>33,03%</t>
+  </si>
+  <si>
+    <t>40,71%</t>
+  </si>
+  <si>
+    <t>38,27%</t>
+  </si>
+  <si>
+    <t>35,5%</t>
+  </si>
+  <si>
+    <t>40,94%</t>
+  </si>
+  <si>
+    <t>10,69%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>13,6%</t>
+  </si>
+  <si>
+    <t>12,98%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>15,62%</t>
+  </si>
+  <si>
+    <t>12,01%</t>
+  </si>
+  <si>
+    <t>13,96%</t>
+  </si>
+  <si>
+    <t>52,87%</t>
+  </si>
+  <si>
+    <t>50,98%</t>
+  </si>
+  <si>
+    <t>54,47%</t>
+  </si>
+  <si>
+    <t>50,3%</t>
+  </si>
+  <si>
+    <t>48,55%</t>
+  </si>
+  <si>
+    <t>52,04%</t>
+  </si>
+  <si>
+    <t>51,56%</t>
+  </si>
+  <si>
+    <t>50,37%</t>
+  </si>
+  <si>
+    <t>52,82%</t>
+  </si>
+  <si>
+    <t>37,15%</t>
+  </si>
+  <si>
+    <t>35,55%</t>
+  </si>
+  <si>
+    <t>38,87%</t>
+  </si>
+  <si>
+    <t>36,2%</t>
+  </si>
+  <si>
+    <t>34,58%</t>
+  </si>
+  <si>
+    <t>37,84%</t>
+  </si>
+  <si>
+    <t>36,66%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>11,09%</t>
+  </si>
+  <si>
+    <t>13,51%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
+  </si>
+  <si>
+    <t>69,42%</t>
+  </si>
+  <si>
+    <t>65,18%</t>
+  </si>
+  <si>
+    <t>73,75%</t>
+  </si>
+  <si>
+    <t>72,44%</t>
+  </si>
+  <si>
+    <t>68,06%</t>
+  </si>
+  <si>
+    <t>76,53%</t>
+  </si>
+  <si>
+    <t>70,89%</t>
+  </si>
+  <si>
+    <t>67,76%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>26,01%</t>
+  </si>
+  <si>
+    <t>22,25%</t>
+  </si>
+  <si>
+    <t>30,13%</t>
+  </si>
+  <si>
+    <t>23,68%</t>
+  </si>
+  <si>
+    <t>19,89%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>24,88%</t>
+  </si>
+  <si>
+    <t>21,97%</t>
+  </si>
+  <si>
+    <t>27,98%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>4,23%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>68,56%</t>
+  </si>
+  <si>
+    <t>64,71%</t>
+  </si>
+  <si>
+    <t>71,85%</t>
+  </si>
+  <si>
+    <t>69,74%</t>
+  </si>
+  <si>
+    <t>65,65%</t>
+  </si>
+  <si>
+    <t>73,31%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>24,61%</t>
+  </si>
+  <si>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>28,15%</t>
+  </si>
+  <si>
+    <t>23,02%</t>
+  </si>
+  <si>
+    <t>19,9%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>23,86%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>26,27%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>5,06%</t>
+  </si>
+  <si>
+    <t>9,37%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>8,66%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>65,78%</t>
+  </si>
+  <si>
+    <t>73,17%</t>
+  </si>
+  <si>
+    <t>73,56%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>76,81%</t>
+  </si>
+  <si>
+    <t>71,61%</t>
+  </si>
+  <si>
+    <t>69,11%</t>
+  </si>
+  <si>
+    <t>74,04%</t>
+  </si>
+  <si>
+    <t>24,46%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>27,97%</t>
+  </si>
+  <si>
+    <t>20,32%</t>
+  </si>
+  <si>
+    <t>17,47%</t>
+  </si>
+  <si>
+    <t>23,91%</t>
+  </si>
+  <si>
+    <t>22,35%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>24,72%</t>
+  </si>
+  <si>
+    <t>5,96%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>8,32%</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,84%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>66,91%</t>
+  </si>
+  <si>
+    <t>63,08%</t>
+  </si>
+  <si>
+    <t>71,36%</t>
+  </si>
+  <si>
+    <t>70,23%</t>
+  </si>
+  <si>
+    <t>66,17%</t>
+  </si>
+  <si>
+    <t>74,06%</t>
+  </si>
+  <si>
+    <t>68,57%</t>
+  </si>
+  <si>
+    <t>65,71%</t>
+  </si>
+  <si>
+    <t>71,19%</t>
+  </si>
+  <si>
+    <t>26,35%</t>
+  </si>
+  <si>
+    <t>22,47%</t>
+  </si>
+  <si>
+    <t>21,33%</t>
+  </si>
+  <si>
+    <t>17,94%</t>
+  </si>
+  <si>
+    <t>24,9%</t>
+  </si>
+  <si>
+    <t>23,84%</t>
+  </si>
+  <si>
+    <t>21,7%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>4,68%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>8,44%</t>
+  </si>
+  <si>
+    <t>6,19%</t>
+  </si>
+  <si>
+    <t>11,13%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>9,28%</t>
+  </si>
+  <si>
+    <t>70,94%</t>
+  </si>
+  <si>
+    <t>75,4%</t>
+  </si>
+  <si>
+    <t>68,11%</t>
+  </si>
+  <si>
+    <t>62,83%</t>
+  </si>
+  <si>
+    <t>72,65%</t>
+  </si>
+  <si>
+    <t>69,5%</t>
+  </si>
+  <si>
+    <t>66,4%</t>
+  </si>
+  <si>
+    <t>73,01%</t>
+  </si>
+  <si>
+    <t>23,58%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>24,67%</t>
+  </si>
+  <si>
+    <t>20,61%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
+  </si>
+  <si>
+    <t>24,13%</t>
+  </si>
+  <si>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>27,16%</t>
+  </si>
+  <si>
+    <t>5,49%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>7,22%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>10,12%</t>
+  </si>
+  <si>
+    <t>6,37%</t>
+  </si>
+  <si>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>65,66%</t>
+  </si>
+  <si>
+    <t>61,18%</t>
+  </si>
+  <si>
+    <t>69,65%</t>
+  </si>
+  <si>
+    <t>67,69%</t>
+  </si>
+  <si>
+    <t>64,16%</t>
+  </si>
+  <si>
+    <t>70,8%</t>
+  </si>
+  <si>
+    <t>66,82%</t>
+  </si>
+  <si>
+    <t>64,2%</t>
+  </si>
+  <si>
+    <t>69,75%</t>
+  </si>
+  <si>
+    <t>26,52%</t>
+  </si>
+  <si>
+    <t>22,54%</t>
+  </si>
+  <si>
+    <t>30,52%</t>
+  </si>
+  <si>
+    <t>25,9%</t>
+  </si>
+  <si>
+    <t>22,69%</t>
+  </si>
+  <si>
+    <t>28,84%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>23,33%</t>
+  </si>
+  <si>
+    <t>28,52%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>5,56%</t>
+  </si>
+  <si>
+    <t>10,46%</t>
+  </si>
+  <si>
+    <t>6,4%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>7,01%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
     <t>7,5%</t>
   </si>
   <si>
-    <t>11,14%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>54,2%</t>
-  </si>
-  <si>
-    <t>50,34%</t>
-  </si>
-  <si>
-    <t>57,9%</t>
-  </si>
-  <si>
-    <t>47,08%</t>
-  </si>
-  <si>
-    <t>43,16%</t>
-  </si>
-  <si>
-    <t>50,92%</t>
-  </si>
-  <si>
-    <t>48,17%</t>
-  </si>
-  <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>35,82%</t>
-  </si>
-  <si>
-    <t>32,38%</t>
-  </si>
-  <si>
-    <t>39,38%</t>
-  </si>
-  <si>
-    <t>41,17%</t>
-  </si>
-  <si>
-    <t>37,59%</t>
-  </si>
-  <si>
-    <t>45,5%</t>
-  </si>
-  <si>
-    <t>38,28%</t>
-  </si>
-  <si>
-    <t>35,49%</t>
-  </si>
-  <si>
-    <t>41,06%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>12,28%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>14,62%</t>
-  </si>
-  <si>
-    <t>10,79%</t>
-  </si>
-  <si>
-    <t>9,21%</t>
-  </si>
-  <si>
-    <t>12,72%</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>53,34%</t>
-  </si>
-  <si>
-    <t>49,34%</t>
-  </si>
-  <si>
-    <t>57,55%</t>
-  </si>
-  <si>
-    <t>49,46%</t>
-  </si>
-  <si>
-    <t>52,85%</t>
-  </si>
-  <si>
-    <t>51,32%</t>
-  </si>
-  <si>
-    <t>48,46%</t>
-  </si>
-  <si>
-    <t>54,06%</t>
-  </si>
-  <si>
-    <t>37,45%</t>
-  </si>
-  <si>
-    <t>33,54%</t>
-  </si>
-  <si>
-    <t>41,36%</t>
-  </si>
-  <si>
-    <t>34,77%</t>
-  </si>
-  <si>
-    <t>30,97%</t>
-  </si>
-  <si>
-    <t>38,22%</t>
-  </si>
-  <si>
-    <t>36,06%</t>
-  </si>
-  <si>
-    <t>33,35%</t>
-  </si>
-  <si>
-    <t>38,77%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
   </si>
   <si>
     <t>6,84%</t>
   </si>
   <si>
-    <t>11,89%</t>
-  </si>
-  <si>
-    <t>15,77%</t>
-  </si>
-  <si>
-    <t>13,04%</t>
-  </si>
-  <si>
-    <t>18,39%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>10,76%</t>
-  </si>
-  <si>
-    <t>14,59%</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>52,07%</t>
-  </si>
-  <si>
-    <t>47,55%</t>
-  </si>
-  <si>
-    <t>56,77%</t>
-  </si>
-  <si>
-    <t>52,6%</t>
-  </si>
-  <si>
-    <t>48,23%</t>
-  </si>
-  <si>
-    <t>57,05%</t>
-  </si>
-  <si>
-    <t>52,33%</t>
-  </si>
-  <si>
-    <t>49,08%</t>
-  </si>
-  <si>
-    <t>55,51%</t>
-  </si>
-  <si>
-    <t>37,06%</t>
-  </si>
-  <si>
-    <t>32,7%</t>
-  </si>
-  <si>
-    <t>41,3%</t>
-  </si>
-  <si>
-    <t>33,61%</t>
-  </si>
-  <si>
-    <t>29,74%</t>
-  </si>
-  <si>
-    <t>37,75%</t>
-  </si>
-  <si>
-    <t>35,34%</t>
-  </si>
-  <si>
-    <t>32,2%</t>
-  </si>
-  <si>
-    <t>38,44%</t>
-  </si>
-  <si>
-    <t>10,87%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>13,96%</t>
-  </si>
-  <si>
-    <t>13,79%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>12,32%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>14,39%</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>51,71%</t>
-  </si>
-  <si>
-    <t>46,92%</t>
-  </si>
-  <si>
-    <t>57,06%</t>
-  </si>
-  <si>
-    <t>51,3%</t>
-  </si>
-  <si>
-    <t>46,54%</t>
-  </si>
-  <si>
-    <t>55,99%</t>
-  </si>
-  <si>
-    <t>51,5%</t>
-  </si>
-  <si>
-    <t>47,88%</t>
-  </si>
-  <si>
-    <t>55,23%</t>
-  </si>
-  <si>
-    <t>35,88%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>40,44%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>28,6%</t>
-  </si>
-  <si>
-    <t>37,74%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,66%</t>
-  </si>
-  <si>
-    <t>37,76%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>9,51%</t>
-  </si>
-  <si>
-    <t>16,42%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>16,63%</t>
-  </si>
-  <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45,26%</t>
-  </si>
-  <si>
-    <t>53,79%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>45,69%</t>
-  </si>
-  <si>
-    <t>53,67%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>52,53%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>35,33%</t>
-  </si>
-  <si>
-    <t>43,99%</t>
-  </si>
-  <si>
-    <t>33,37%</t>
-  </si>
-  <si>
-    <t>40,55%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>35,52%</t>
-  </si>
-  <si>
-    <t>41,05%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,21%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,59%</t>
-  </si>
-  <si>
-    <t>15,54%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>52,87%</t>
-  </si>
-  <si>
-    <t>51,19%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>50,3%</t>
-  </si>
-  <si>
-    <t>48,61%</t>
-  </si>
-  <si>
-    <t>51,96%</t>
-  </si>
-  <si>
-    <t>51,56%</t>
-  </si>
-  <si>
-    <t>50,33%</t>
-  </si>
-  <si>
-    <t>52,77%</t>
-  </si>
-  <si>
-    <t>37,15%</t>
-  </si>
-  <si>
-    <t>35,27%</t>
-  </si>
-  <si>
-    <t>38,87%</t>
-  </si>
-  <si>
-    <t>36,2%</t>
-  </si>
-  <si>
-    <t>34,44%</t>
-  </si>
-  <si>
-    <t>37,79%</t>
-  </si>
-  <si>
-    <t>36,66%</t>
-  </si>
-  <si>
-    <t>35,48%</t>
-  </si>
-  <si>
-    <t>37,89%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>8,83%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>13,51%</t>
-  </si>
-  <si>
-    <t>12,25%</t>
-  </si>
-  <si>
-    <t>14,66%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
-  </si>
-  <si>
-    <t>12,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2012 (Tasa respuesta: 99,83%)</t>
-  </si>
-  <si>
-    <t>69,42%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>73,6%</t>
-  </si>
-  <si>
-    <t>72,44%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>76,3%</t>
-  </si>
-  <si>
-    <t>70,89%</t>
-  </si>
-  <si>
-    <t>67,85%</t>
-  </si>
-  <si>
-    <t>73,82%</t>
-  </si>
-  <si>
-    <t>26,01%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>30,17%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>19,9%</t>
-  </si>
-  <si>
-    <t>28,03%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>22,03%</t>
-  </si>
-  <si>
-    <t>27,81%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,23%</t>
-  </si>
-  <si>
-    <t>3,02%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>68,56%</t>
-  </si>
-  <si>
-    <t>64,71%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>69,74%</t>
-  </si>
-  <si>
-    <t>66,1%</t>
-  </si>
-  <si>
-    <t>74,01%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>66,52%</t>
-  </si>
-  <si>
-    <t>71,7%</t>
-  </si>
-  <si>
-    <t>24,61%</t>
-  </si>
-  <si>
-    <t>21,62%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>23,02%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>26,36%</t>
-  </si>
-  <si>
-    <t>23,86%</t>
-  </si>
-  <si>
-    <t>21,37%</t>
-  </si>
-  <si>
-    <t>26,25%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>4,99%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>67,37%</t>
+  </si>
+  <si>
+    <t>74,79%</t>
+  </si>
+  <si>
+    <t>69,28%</t>
+  </si>
+  <si>
+    <t>76,74%</t>
+  </si>
+  <si>
+    <t>72,15%</t>
+  </si>
+  <si>
+    <t>24,23%</t>
+  </si>
+  <si>
+    <t>20,91%</t>
+  </si>
+  <si>
+    <t>27,89%</t>
+  </si>
+  <si>
+    <t>21,38%</t>
+  </si>
+  <si>
+    <t>18,14%</t>
+  </si>
+  <si>
+    <t>24,89%</t>
+  </si>
+  <si>
+    <t>22,61%</t>
+  </si>
+  <si>
+    <t>20,45%</t>
+  </si>
+  <si>
+    <t>25,3%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,76%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>81,91%</t>
+  </si>
+  <si>
+    <t>75,48%</t>
+  </si>
+  <si>
+    <t>87,65%</t>
+  </si>
+  <si>
+    <t>68,7%</t>
+  </si>
+  <si>
+    <t>61,54%</t>
+  </si>
+  <si>
+    <t>75,98%</t>
+  </si>
+  <si>
+    <t>75,51%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,23%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>20,18%</t>
+  </si>
+  <si>
+    <t>22,75%</t>
+  </si>
+  <si>
+    <t>16,65%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>14,15%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>73,53%</t>
+  </si>
+  <si>
+    <t>67,84%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>80,04%</t>
+  </si>
+  <si>
+    <t>75,87%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>77,04%</t>
+  </si>
+  <si>
+    <t>73,23%</t>
+  </si>
+  <si>
+    <t>79,75%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>14,27%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>17,87%</t>
+  </si>
+  <si>
+    <t>17,19%</t>
+  </si>
+  <si>
+    <t>14,44%</t>
+  </si>
+  <si>
+    <t>20,39%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>5,68%</t>
+  </si>
+  <si>
+    <t>3,64%</t>
+  </si>
+  <si>
+    <t>8,2%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>4,24%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>80,65%</t>
+  </si>
+  <si>
+    <t>78,87%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>78,06%</t>
+  </si>
+  <si>
+    <t>75,39%</t>
+  </si>
+  <si>
+    <t>80,77%</t>
+  </si>
+  <si>
+    <t>18,22%</t>
+  </si>
+  <si>
+    <t>14,93%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>14,81%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>16,44%</t>
+  </si>
+  <si>
+    <t>14,09%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>4,77%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>77,98%</t>
+  </si>
+  <si>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>82,72%</t>
+  </si>
+  <si>
+    <t>75,3%</t>
+  </si>
+  <si>
+    <t>72,49%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>76,62%</t>
+  </si>
+  <si>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>79,48%</t>
+  </si>
+  <si>
+    <t>15,93%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>19,06%</t>
+  </si>
+  <si>
+    <t>19,1%</t>
+  </si>
+  <si>
+    <t>16,69%</t>
+  </si>
+  <si>
+    <t>17,54%</t>
+  </si>
+  <si>
+    <t>15,34%</t>
+  </si>
+  <si>
+    <t>19,71%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>5,61%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>5,85%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>74,38%</t>
+  </si>
+  <si>
+    <t>81,07%</t>
+  </si>
+  <si>
+    <t>77,0%</t>
+  </si>
+  <si>
+    <t>74,15%</t>
+  </si>
+  <si>
+    <t>79,84%</t>
+  </si>
+  <si>
+    <t>77,45%</t>
+  </si>
+  <si>
+    <t>75,24%</t>
+  </si>
+  <si>
+    <t>79,64%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>19,63%</t>
+  </si>
+  <si>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>13,42%</t>
+  </si>
+  <si>
+    <t>16,14%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>7,64%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
   </si>
   <si>
     <t>5,28%</t>
   </si>
   <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>69,59%</t>
-  </si>
-  <si>
-    <t>65,86%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>73,56%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>71,61%</t>
-  </si>
-  <si>
-    <t>68,94%</t>
-  </si>
-  <si>
-    <t>73,86%</t>
-  </si>
-  <si>
-    <t>24,46%</t>
-  </si>
-  <si>
-    <t>21,23%</t>
-  </si>
-  <si>
-    <t>27,92%</t>
-  </si>
-  <si>
-    <t>20,32%</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>22,35%</t>
-  </si>
-  <si>
-    <t>20,21%</t>
-  </si>
-  <si>
-    <t>24,65%</t>
-  </si>
-  <si>
-    <t>5,96%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>6,04%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>7,44%</t>
-  </si>
-  <si>
-    <t>66,91%</t>
-  </si>
-  <si>
-    <t>62,44%</t>
-  </si>
-  <si>
-    <t>71,01%</t>
-  </si>
-  <si>
-    <t>70,23%</t>
-  </si>
-  <si>
-    <t>66,38%</t>
-  </si>
-  <si>
-    <t>74,26%</t>
-  </si>
-  <si>
-    <t>68,57%</t>
-  </si>
-  <si>
-    <t>65,65%</t>
-  </si>
-  <si>
-    <t>71,27%</t>
-  </si>
-  <si>
-    <t>26,35%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>30,39%</t>
-  </si>
-  <si>
-    <t>21,33%</t>
-  </si>
-  <si>
-    <t>18,03%</t>
-  </si>
-  <si>
-    <t>24,77%</t>
-  </si>
-  <si>
-    <t>23,84%</t>
-  </si>
-  <si>
-    <t>21,32%</t>
-  </si>
-  <si>
-    <t>26,53%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>8,44%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>70,94%</t>
-  </si>
-  <si>
-    <t>65,95%</t>
-  </si>
-  <si>
-    <t>75,8%</t>
-  </si>
-  <si>
-    <t>68,11%</t>
-  </si>
-  <si>
-    <t>63,19%</t>
-  </si>
-  <si>
-    <t>72,58%</t>
-  </si>
-  <si>
-    <t>69,5%</t>
-  </si>
-  <si>
-    <t>66,35%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>23,58%</t>
-  </si>
-  <si>
-    <t>19,28%</t>
-  </si>
-  <si>
-    <t>28,35%</t>
-  </si>
-  <si>
-    <t>24,67%</t>
-  </si>
-  <si>
-    <t>20,48%</t>
-  </si>
-  <si>
-    <t>29,23%</t>
-  </si>
-  <si>
-    <t>24,13%</t>
-  </si>
-  <si>
-    <t>21,25%</t>
-  </si>
-  <si>
-    <t>27,0%</t>
-  </si>
-  <si>
-    <t>5,49%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>7,22%</t>
-  </si>
-  <si>
-    <t>10,13%</t>
-  </si>
-  <si>
-    <t>6,37%</t>
-  </si>
-  <si>
-    <t>4,82%</t>
-  </si>
-  <si>
-    <t>8,19%</t>
-  </si>
-  <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,21%</t>
-  </si>
-  <si>
-    <t>69,96%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>64,26%</t>
-  </si>
-  <si>
-    <t>71,14%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>63,97%</t>
-  </si>
-  <si>
-    <t>69,67%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>30,78%</t>
-  </si>
-  <si>
-    <t>25,9%</t>
-  </si>
-  <si>
-    <t>29,43%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,77%</t>
-  </si>
-  <si>
-    <t>28,9%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>4,75%</t>
-  </si>
-  <si>
-    <t>8,36%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>66,93%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,67%</t>
-  </si>
-  <si>
-    <t>71,92%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>70,51%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,63%</t>
-  </si>
-  <si>
-    <t>26,71%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,65%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,14%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,1%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>68,54%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,68%</t>
-  </si>
-  <si>
-    <t>73,85%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,78%</t>
-  </si>
-  <si>
-    <t>24,79%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>29,3%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,75%</t>
-  </si>
-  <si>
-    <t>25,56%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>8,87%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>9,0%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>63,71%</t>
-  </si>
-  <si>
-    <t>71,38%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>73,0%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>65,62%</t>
-  </si>
-  <si>
-    <t>71,19%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,1%</t>
-  </si>
-  <si>
-    <t>31,6%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>27,23%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>28,31%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>9,4%</t>
-  </si>
-  <si>
-    <t>7,48%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,59%</t>
-  </si>
-  <si>
-    <t>74,49%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>69,49%</t>
-  </si>
-  <si>
-    <t>76,43%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,69%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>27,27%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>24,18%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>7,25%</t>
-  </si>
-  <si>
-    <t>4,84%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>68,05%</t>
-  </si>
-  <si>
-    <t>75,08%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>66,73%</t>
-  </si>
-  <si>
-    <t>74,16%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>28,12%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>19,49%</t>
-  </si>
-  <si>
-    <t>26,19%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,26%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>8,66%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,65%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>67,62%</t>
-  </si>
-  <si>
-    <t>76,12%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
-  </si>
-  <si>
-    <t>76,03%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>75,09%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,26%</t>
-  </si>
-  <si>
-    <t>24,57%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,12%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>10,15%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>74,7%</t>
-  </si>
-  <si>
-    <t>73,01%</t>
-  </si>
-  <si>
-    <t>69,56%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>69,41%</t>
-  </si>
-  <si>
-    <t>74,59%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>21,08%</t>
-  </si>
-  <si>
-    <t>27,88%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,33%</t>
-  </si>
-  <si>
-    <t>24,83%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>24,97%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,77%</t>
-  </si>
-  <si>
-    <t>72,91%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>72,38%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,55%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,55%</t>
-  </si>
-  <si>
-    <t>23,42%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>21,88%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>75,17%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>74,94%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>70,56%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>20,94%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>17,12%</t>
-  </si>
-  <si>
-    <t>30,37%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>9,27%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>68,16%</t>
-  </si>
-  <si>
-    <t>78,32%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>75,93%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,7%</t>
-  </si>
-  <si>
-    <t>80,31%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,2%</t>
-  </si>
-  <si>
-    <t>26,05%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>17,74%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,36%</t>
-  </si>
-  <si>
-    <t>20,36%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>9,36%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
-  </si>
-  <si>
-    <t>8,24%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>72,81%</t>
-  </si>
-  <si>
-    <t>80,66%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>75,25%</t>
-  </si>
-  <si>
-    <t>82,02%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,69%</t>
-  </si>
-  <si>
-    <t>80,7%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>15,12%</t>
-  </si>
-  <si>
-    <t>22,3%</t>
-  </si>
-  <si>
-    <t>14,81%</t>
-  </si>
-  <si>
-    <t>12,09%</t>
-  </si>
-  <si>
-    <t>17,85%</t>
-  </si>
-  <si>
-    <t>16,44%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>74,21%</t>
-  </si>
-  <si>
-    <t>82,78%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>72,23%</t>
-  </si>
-  <si>
-    <t>77,99%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
-  </si>
-  <si>
-    <t>79,23%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,26%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,68%</t>
-  </si>
-  <si>
-    <t>21,7%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>19,6%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>4,17%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,73%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>81,16%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,56%</t>
-  </si>
-  <si>
-    <t>75,28%</t>
-  </si>
-  <si>
-    <t>79,58%</t>
-  </si>
-  <si>
-    <t>13,56%</t>
-  </si>
-  <si>
-    <t>19,56%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,67%</t>
-  </si>
-  <si>
-    <t>18,46%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>18,07%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>7,63%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>5,64%</t>
-  </si>
-  <si>
-    <t>9,08%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>75,6%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>69,66%</t>
+  </si>
+  <si>
+    <t>51,59%</t>
+  </si>
+  <si>
+    <t>79,09%</t>
+  </si>
+  <si>
+    <t>72,07%</t>
+  </si>
+  <si>
+    <t>57,43%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>17,08%</t>
+  </si>
+  <si>
+    <t>22,02%</t>
+  </si>
+  <si>
+    <t>16,52%</t>
+  </si>
+  <si>
+    <t>45,43%</t>
+  </si>
+  <si>
+    <t>23,6%</t>
+  </si>
+  <si>
+    <t>17,65%</t>
+  </si>
+  <si>
+    <t>39,03%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
   </si>
   <si>
     <t>5,18%</t>
   </si>
   <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>72,85%</t>
-  </si>
-  <si>
-    <t>78,24%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>48,83%</t>
-  </si>
-  <si>
-    <t>78,92%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>55,76%</t>
-  </si>
-  <si>
-    <t>77,58%</t>
-  </si>
-  <si>
-    <t>19,68%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>26,27%</t>
-  </si>
-  <si>
-    <t>48,67%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,83%</t>
-  </si>
-  <si>
-    <t>41,23%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>6,24%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>2,73%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>75,55%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
+    <t>79,04%</t>
   </si>
   <si>
     <t>74,63%</t>
   </si>
   <si>
-    <t>66,14%</t>
-  </si>
-  <si>
-    <t>77,33%</t>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>77,23%</t>
   </si>
   <si>
     <t>75,84%</t>
   </si>
   <si>
-    <t>77,44%</t>
+    <t>71,18%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
   </si>
   <si>
     <t>17,56%</t>
   </si>
   <si>
-    <t>15,91%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
+    <t>15,94%</t>
+  </si>
+  <si>
+    <t>18,92%</t>
   </si>
   <si>
     <t>19,54%</t>
   </si>
   <si>
-    <t>16,74%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
+    <t>28,44%</t>
   </si>
   <si>
     <t>18,61%</t>
   </si>
   <si>
-    <t>16,98%</t>
-  </si>
-  <si>
-    <t>24,2%</t>
+    <t>17,05%</t>
+  </si>
+  <si>
+    <t>23,82%</t>
   </si>
   <si>
     <t>5,23%</t>
   </si>
   <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>5,04%</t>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
   </si>
   <si>
     <t>5,55%</t>
   </si>
   <si>
-    <t>5,0%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>6,14%</t>
   </si>
 </sst>
 </file>
@@ -2631,7 +2628,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D08AC304-647C-450B-A41F-A8756B6826F7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2139E1D2-52C3-4733-BF3A-D6ED14E8E306}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2991,13 +2988,13 @@
         <v>693074</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3012,13 +3009,13 @@
         <v>263467</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H9" s="7">
         <v>243</v>
@@ -3027,13 +3024,13 @@
         <v>257546</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M9" s="7">
         <v>500</v>
@@ -3042,13 +3039,13 @@
         <v>521013</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3063,13 +3060,13 @@
         <v>73416</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H10" s="7">
         <v>68</v>
@@ -3078,13 +3075,13 @@
         <v>73479</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="M10" s="7">
         <v>136</v>
@@ -3093,13 +3090,13 @@
         <v>146895</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3155,7 +3152,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3167,13 +3164,13 @@
         <v>340662</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H12" s="7">
         <v>324</v>
@@ -3182,13 +3179,13 @@
         <v>341145</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>55</v>
+        <v>74</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="M12" s="7">
         <v>648</v>
@@ -3197,13 +3194,13 @@
         <v>681807</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3218,13 +3215,13 @@
         <v>239152</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="H13" s="7">
         <v>229</v>
@@ -3233,13 +3230,13 @@
         <v>239852</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="M13" s="7">
         <v>465</v>
@@ -3248,13 +3245,13 @@
         <v>479004</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3269,13 +3266,13 @@
         <v>58854</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="H14" s="7">
         <v>105</v>
@@ -3284,13 +3281,13 @@
         <v>108746</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="M14" s="7">
         <v>158</v>
@@ -3299,13 +3296,13 @@
         <v>167600</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3361,7 +3358,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3373,13 +3370,13 @@
         <v>270323</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H16" s="7">
         <v>263</v>
@@ -3388,13 +3385,13 @@
         <v>270226</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="M16" s="7">
         <v>513</v>
@@ -3403,13 +3400,13 @@
         <v>540549</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3424,13 +3421,13 @@
         <v>192387</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H17" s="7">
         <v>166</v>
@@ -3439,13 +3436,13 @@
         <v>172645</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="M17" s="7">
         <v>348</v>
@@ -3454,13 +3451,13 @@
         <v>365033</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3475,13 +3472,13 @@
         <v>56436</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="H18" s="7">
         <v>71</v>
@@ -3490,13 +3487,13 @@
         <v>70863</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>39</v>
+        <v>120</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="M18" s="7">
         <v>123</v>
@@ -3505,13 +3502,13 @@
         <v>127299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,7 +3564,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3579,13 +3576,13 @@
         <v>199540</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="H20" s="7">
         <v>200</v>
@@ -3594,13 +3591,13 @@
         <v>206784</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="M20" s="7">
         <v>401</v>
@@ -3609,13 +3606,13 @@
         <v>406324</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3630,13 +3627,13 @@
         <v>138436</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H21" s="7">
         <v>132</v>
@@ -3645,13 +3642,13 @@
         <v>132621</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="M21" s="7">
         <v>275</v>
@@ -3660,13 +3657,13 @@
         <v>271057</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3681,13 +3678,13 @@
         <v>47890</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H22" s="7">
         <v>63</v>
@@ -3696,13 +3693,13 @@
         <v>63649</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M22" s="7">
         <v>110</v>
@@ -3711,13 +3708,13 @@
         <v>111539</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,7 +3770,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -3785,13 +3782,13 @@
         <v>248599</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="H24" s="7">
         <v>326</v>
@@ -3800,13 +3797,13 @@
         <v>337279</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="M24" s="7">
         <v>587</v>
@@ -3815,13 +3812,13 @@
         <v>585877</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3836,13 +3833,13 @@
         <v>199354</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>161</v>
+        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="H25" s="7">
         <v>248</v>
@@ -3854,10 +3851,10 @@
         <v>21</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M25" s="7">
         <v>452</v>
@@ -3866,13 +3863,13 @@
         <v>451033</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3887,13 +3884,13 @@
         <v>53645</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H26" s="7">
         <v>87</v>
@@ -3902,13 +3899,13 @@
         <v>87884</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M26" s="7">
         <v>144</v>
@@ -3917,13 +3914,13 @@
         <v>141530</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>175</v>
+        <v>123</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3991,13 +3988,13 @@
         <v>1731295</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="H28" s="7">
         <v>1651</v>
@@ -4006,13 +4003,13 @@
         <v>1697680</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="M28" s="7">
         <v>3337</v>
@@ -4021,13 +4018,13 @@
         <v>3428975</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4042,13 +4039,13 @@
         <v>1216475</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H29" s="7">
         <v>1196</v>
@@ -4057,13 +4054,13 @@
         <v>1221767</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M29" s="7">
         <v>2407</v>
@@ -4072,13 +4069,13 @@
         <v>2438242</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4093,13 +4090,13 @@
         <v>327061</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="H30" s="7">
         <v>446</v>
@@ -4108,13 +4105,13 @@
         <v>455922</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>200</v>
+        <v>96</v>
       </c>
       <c r="M30" s="7">
         <v>761</v>
@@ -4126,10 +4123,10 @@
         <v>201</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>34</v>
+        <v>202</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,7 +4182,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -4207,7 +4204,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEB4F665-E267-4512-8C56-8F1963E3B208}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A41868-C40B-4774-B42A-EF14288A14F8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4224,7 +4221,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4331,13 +4328,13 @@
         <v>314620</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="H4" s="7">
         <v>307</v>
@@ -4346,13 +4343,13 @@
         <v>310910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -4361,13 +4358,13 @@
         <v>625530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4382,13 +4379,13 @@
         <v>117895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -4397,13 +4394,13 @@
         <v>101640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -4412,13 +4409,13 @@
         <v>219536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4433,13 +4430,13 @@
         <v>20679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4448,13 +4445,13 @@
         <v>16666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -4463,13 +4460,13 @@
         <v>37344</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4537,13 +4534,13 @@
         <v>470015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H8" s="7">
         <v>398</v>
@@ -4552,13 +4549,13 @@
         <v>425620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M8" s="7">
         <v>850</v>
@@ -4567,13 +4564,13 @@
         <v>895635</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4588,13 +4585,13 @@
         <v>168717</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="H9" s="7">
         <v>131</v>
@@ -4603,13 +4600,13 @@
         <v>140508</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
@@ -4618,13 +4615,13 @@
         <v>309226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4639,13 +4636,13 @@
         <v>46811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4654,13 +4651,13 @@
         <v>44127</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4669,13 +4666,13 @@
         <v>90938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4731,7 +4728,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -4743,28 +4740,28 @@
         <v>473351</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="H12" s="7">
         <v>489</v>
       </c>
       <c r="I12" s="7">
-        <v>521624</v>
+        <v>521623</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M12" s="7">
         <v>938</v>
@@ -4773,13 +4770,13 @@
         <v>994975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4794,13 +4791,13 @@
         <v>166358</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4809,13 +4806,13 @@
         <v>144123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -4824,13 +4821,13 @@
         <v>310481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,13 +4842,13 @@
         <v>40532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4860,13 +4857,13 @@
         <v>43384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4875,13 +4872,13 @@
         <v>83916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4908,7 +4905,7 @@
         <v>666</v>
       </c>
       <c r="I15" s="7">
-        <v>709131</v>
+        <v>709130</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4937,7 +4934,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4949,13 +4946,13 @@
         <v>410541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>374</v>
@@ -4964,13 +4961,13 @@
         <v>431995</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M16" s="7">
         <v>742</v>
@@ -4979,13 +4976,13 @@
         <v>842537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5000,13 +4997,13 @@
         <v>161689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>297</v>
+        <v>217</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -5143,7 +5140,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5158,10 +5155,10 @@
         <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>276</v>
@@ -5170,13 +5167,13 @@
         <v>303615</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>316</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>317</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>318</v>
       </c>
       <c r="M20" s="7">
         <v>554</v>
@@ -5185,13 +5182,13 @@
         <v>608235</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>319</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>320</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>321</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5206,13 +5203,13 @@
         <v>101255</v>
       </c>
       <c r="E21" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>322</v>
       </c>
-      <c r="F21" s="7" t="s">
-        <v>323</v>
-      </c>
       <c r="G21" s="7" t="s">
-        <v>324</v>
+        <v>244</v>
       </c>
       <c r="H21" s="7">
         <v>99</v>
@@ -5221,13 +5218,13 @@
         <v>109961</v>
       </c>
       <c r="J21" s="7" t="s">
+        <v>323</v>
+      </c>
+      <c r="K21" s="7" t="s">
+        <v>324</v>
+      </c>
+      <c r="L21" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>326</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>327</v>
       </c>
       <c r="M21" s="7">
         <v>192</v>
@@ -5236,13 +5233,13 @@
         <v>211217</v>
       </c>
       <c r="O21" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P21" s="7" t="s">
+        <v>327</v>
+      </c>
+      <c r="Q21" s="7" t="s">
         <v>328</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>329</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>330</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5257,13 +5254,13 @@
         <v>23555</v>
       </c>
       <c r="E22" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>330</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>332</v>
-      </c>
-      <c r="G22" s="7" t="s">
-        <v>333</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -5272,13 +5269,13 @@
         <v>32165</v>
       </c>
       <c r="J22" s="7" t="s">
+        <v>332</v>
+      </c>
+      <c r="K22" s="7" t="s">
+        <v>333</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>334</v>
-      </c>
-      <c r="K22" s="7" t="s">
-        <v>251</v>
-      </c>
-      <c r="L22" s="7" t="s">
-        <v>335</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5287,13 +5284,13 @@
         <v>55720</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>335</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>336</v>
       </c>
-      <c r="P22" s="7" t="s">
-        <v>337</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>338</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5349,7 +5346,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -5361,13 +5358,13 @@
         <v>366664</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>337</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>338</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>339</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>340</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>341</v>
       </c>
       <c r="H24" s="7">
         <v>469</v>
@@ -5376,13 +5373,13 @@
         <v>502941</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>340</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>341</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>342</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>344</v>
       </c>
       <c r="M24" s="7">
         <v>801</v>
@@ -5391,13 +5388,13 @@
         <v>869605</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>345</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>346</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5412,13 +5409,13 @@
         <v>148111</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>346</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>347</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>348</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>350</v>
       </c>
       <c r="H25" s="7">
         <v>181</v>
@@ -5427,13 +5424,13 @@
         <v>192457</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>349</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>350</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>351</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>349</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>352</v>
       </c>
       <c r="M25" s="7">
         <v>312</v>
@@ -5442,13 +5439,13 @@
         <v>340567</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>352</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>353</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>354</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5463,13 +5460,13 @@
         <v>43694</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>355</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>356</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>357</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>358</v>
       </c>
       <c r="H26" s="7">
         <v>44</v>
@@ -5478,13 +5475,13 @@
         <v>47577</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>359</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>361</v>
       </c>
       <c r="M26" s="7">
         <v>84</v>
@@ -5493,13 +5490,13 @@
         <v>91271</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>361</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>363</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5567,13 +5564,13 @@
         <v>2339811</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="H28" s="7">
         <v>2313</v>
@@ -5582,28 +5579,28 @@
         <v>2496706</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>367</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="M28" s="7">
         <v>4500</v>
       </c>
       <c r="N28" s="7">
-        <v>4836518</v>
+        <v>4836517</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>370</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5618,13 +5615,13 @@
         <v>864025</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>373</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>375</v>
       </c>
       <c r="H29" s="7">
         <v>762</v>
@@ -5633,13 +5630,13 @@
         <v>819907</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>376</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>378</v>
       </c>
       <c r="M29" s="7">
         <v>1577</v>
@@ -5648,13 +5645,13 @@
         <v>1683933</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>379</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5669,13 +5666,13 @@
         <v>216633</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>382</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>253</v>
       </c>
       <c r="H30" s="7">
         <v>218</v>
@@ -5747,7 +5744,7 @@
         <v>6496</v>
       </c>
       <c r="N31" s="7">
-        <v>6972929</v>
+        <v>6972928</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>40</v>
@@ -5761,7 +5758,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -5783,7 +5780,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AEE2D63-5F65-4A75-8D95-F78E8DB58BE3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73663E2-99DD-4051-BCF0-881231C791A8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6009,7 +6006,7 @@
         <v>25347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>409</v>
@@ -6134,7 +6131,7 @@
         <v>421</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>422</v>
+        <v>262</v>
       </c>
       <c r="M8" s="7">
         <v>787</v>
@@ -6143,13 +6140,13 @@
         <v>790332</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="P8" s="7" t="s">
         <v>423</v>
       </c>
-      <c r="P8" s="7" t="s">
+      <c r="Q8" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>425</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6164,13 +6161,13 @@
         <v>162682</v>
       </c>
       <c r="E9" s="7" t="s">
+        <v>425</v>
+      </c>
+      <c r="F9" s="7" t="s">
         <v>426</v>
       </c>
-      <c r="F9" s="7" t="s">
+      <c r="G9" s="7" t="s">
         <v>427</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>428</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -6179,13 +6176,13 @@
         <v>132863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K9" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="L9" s="7" t="s">
         <v>429</v>
-      </c>
-      <c r="L9" s="7" t="s">
-        <v>430</v>
       </c>
       <c r="M9" s="7">
         <v>293</v>
@@ -6194,13 +6191,13 @@
         <v>295545</v>
       </c>
       <c r="O9" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="P9" s="7" t="s">
         <v>431</v>
       </c>
-      <c r="P9" s="7" t="s">
+      <c r="Q9" s="7" t="s">
         <v>432</v>
-      </c>
-      <c r="Q9" s="7" t="s">
-        <v>433</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6215,13 +6212,13 @@
         <v>27994</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>433</v>
+      </c>
+      <c r="F10" s="7" t="s">
         <v>434</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="G10" s="7" t="s">
         <v>435</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -6245,13 +6242,13 @@
         <v>68163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>388</v>
+        <v>439</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>305</v>
+        <v>440</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6307,7 +6304,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -6319,13 +6316,13 @@
         <v>475319</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="H12" s="7">
         <v>486</v>
@@ -6334,13 +6331,13 @@
         <v>482468</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>444</v>
+        <v>318</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="M12" s="7">
         <v>943</v>
@@ -6349,13 +6346,13 @@
         <v>957787</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6370,10 +6367,10 @@
         <v>158395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="G13" s="7" t="s">
         <v>451</v>
@@ -6391,7 +6388,7 @@
         <v>453</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>374</v>
+        <v>454</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -6400,13 +6397,13 @@
         <v>291738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>407</v>
+        <v>456</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6421,13 +6418,13 @@
         <v>35384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>458</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6439,10 +6436,10 @@
         <v>304</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>37</v>
+        <v>461</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -6451,13 +6448,13 @@
         <v>79882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>284</v>
+        <v>463</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6513,7 +6510,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -6525,13 +6522,13 @@
         <v>461013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="H16" s="7">
         <v>425</v>
@@ -6540,13 +6537,13 @@
         <v>456239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="M16" s="7">
         <v>839</v>
@@ -6555,13 +6552,13 @@
         <v>917252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>368</v>
+        <v>472</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6576,13 +6573,13 @@
         <v>157488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>269</v>
+        <v>475</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>471</v>
+        <v>271</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -6591,13 +6588,13 @@
         <v>148321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="M17" s="7">
         <v>280</v>
@@ -6606,13 +6603,13 @@
         <v>305809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>249</v>
+        <v>481</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6627,13 +6624,13 @@
         <v>25191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>477</v>
+        <v>482</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>478</v>
+        <v>483</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -6642,13 +6639,13 @@
         <v>42714</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>480</v>
+        <v>485</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>481</v>
+        <v>486</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>482</v>
+        <v>487</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6657,13 +6654,13 @@
         <v>67905</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>483</v>
+        <v>488</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>484</v>
+        <v>489</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>485</v>
+        <v>490</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6719,7 +6716,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6731,13 +6728,13 @@
         <v>344489</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>486</v>
+        <v>491</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>487</v>
+        <v>492</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>488</v>
+        <v>493</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -6746,13 +6743,13 @@
         <v>357615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>489</v>
+        <v>494</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="M20" s="7">
         <v>619</v>
@@ -6761,13 +6758,13 @@
         <v>702104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>493</v>
+        <v>498</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>494</v>
+        <v>499</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6782,13 +6779,13 @@
         <v>102403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>495</v>
+        <v>500</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>497</v>
+        <v>502</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -6797,13 +6794,13 @@
         <v>103608</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>498</v>
+        <v>503</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>499</v>
+        <v>504</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>500</v>
+        <v>505</v>
       </c>
       <c r="M21" s="7">
         <v>181</v>
@@ -6812,13 +6809,13 @@
         <v>206011</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>501</v>
+        <v>506</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>503</v>
+        <v>508</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6836,10 +6833,10 @@
         <v>387</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>504</v>
+        <v>509</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>505</v>
+        <v>67</v>
       </c>
       <c r="H22" s="7">
         <v>30</v>
@@ -6848,13 +6845,13 @@
         <v>35626</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>506</v>
+        <v>389</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6863,13 +6860,13 @@
         <v>66651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>87</v>
+        <v>512</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>510</v>
+        <v>362</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6925,7 +6922,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -6937,13 +6934,13 @@
         <v>420004</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="H24" s="7">
         <v>478</v>
@@ -6952,13 +6949,13 @@
         <v>565543</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>514</v>
+        <v>320</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="M24" s="7">
         <v>924</v>
@@ -6967,13 +6964,13 @@
         <v>985547</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>518</v>
+        <v>420</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>519</v>
+        <v>444</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -7039,13 +7036,13 @@
         <v>28050</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F26" s="7" t="s">
         <v>529</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>530</v>
+        <v>387</v>
       </c>
       <c r="H26" s="7">
         <v>36</v>
@@ -7054,7 +7051,7 @@
         <v>43503</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>257</v>
+        <v>530</v>
       </c>
       <c r="K26" s="7" t="s">
         <v>531</v>
@@ -7075,7 +7072,7 @@
         <v>534</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>384</v>
+        <v>535</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7143,13 +7140,13 @@
         <v>2409164</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>518</v>
+        <v>536</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="H28" s="7">
         <v>2388</v>
@@ -7158,13 +7155,13 @@
         <v>2525987</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="M28" s="7">
         <v>4685</v>
@@ -7173,13 +7170,13 @@
         <v>4935152</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>540</v>
+        <v>264</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7194,13 +7191,13 @@
         <v>809838</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>497</v>
+        <v>545</v>
       </c>
       <c r="H29" s="7">
         <v>732</v>
@@ -7209,13 +7206,13 @@
         <v>781075</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="M29" s="7">
         <v>1503</v>
@@ -7224,13 +7221,13 @@
         <v>1590913</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7245,13 +7242,13 @@
         <v>172992</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>552</v>
+        <v>484</v>
       </c>
       <c r="H30" s="7">
         <v>213</v>
@@ -7260,13 +7257,13 @@
         <v>231322</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>285</v>
+        <v>38</v>
       </c>
       <c r="M30" s="7">
         <v>374</v>
@@ -7275,13 +7272,13 @@
         <v>404314</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>555</v>
+        <v>232</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>254</v>
+        <v>556</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7337,7 +7334,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>
@@ -7359,7 +7356,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73360A6F-6EC5-4B3A-823A-5C5286D28056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ECDCCC-89EA-460E-B233-7720F2DA87A8}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7376,7 +7373,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7483,13 +7480,13 @@
         <v>309344</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="H4" s="7">
         <v>146</v>
@@ -7498,13 +7495,13 @@
         <v>243864</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="M4" s="7">
         <v>287</v>
@@ -7513,13 +7510,13 @@
         <v>553208</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7534,10 +7531,10 @@
         <v>53373</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>568</v>
+        <v>413</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>569</v>
@@ -7570,7 +7567,7 @@
         <v>574</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>244</v>
+        <v>575</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7585,13 +7582,13 @@
         <v>14962</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>531</v>
+        <v>576</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
@@ -7600,13 +7597,13 @@
         <v>30324</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>578</v>
+        <v>552</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>579</v>
+        <v>199</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
@@ -7618,10 +7615,10 @@
         <v>580</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>412</v>
+        <v>581</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7689,13 +7686,13 @@
         <v>314999</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
@@ -7704,13 +7701,13 @@
         <v>399587</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="M8" s="7">
         <v>590</v>
@@ -7719,13 +7716,13 @@
         <v>714586</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7740,13 +7737,13 @@
         <v>88233</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="H9" s="7">
         <v>68</v>
@@ -7755,13 +7752,13 @@
         <v>71255</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
@@ -7770,13 +7767,13 @@
         <v>159489</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7791,13 +7788,13 @@
         <v>25163</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>552</v>
+        <v>385</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
@@ -7806,13 +7803,13 @@
         <v>28373</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
@@ -7821,13 +7818,13 @@
         <v>53536</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7883,7 +7880,7 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -7895,13 +7892,13 @@
         <v>428994</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="H12" s="7">
         <v>668</v>
@@ -7910,10 +7907,10 @@
         <v>480051</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>612</v>
+        <v>496</v>
       </c>
       <c r="L12" s="7" t="s">
         <v>613</v>
@@ -7979,10 +7976,10 @@
         <v>623</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>567</v>
+        <v>624</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7997,13 +7994,13 @@
         <v>25622</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
@@ -8012,13 +8009,13 @@
         <v>38439</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>630</v>
+        <v>171</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -8027,13 +8024,13 @@
         <v>64061</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>383</v>
+        <v>631</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>87</v>
+        <v>633</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8089,7 +8086,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -8101,13 +8098,13 @@
         <v>564543</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>632</v>
+        <v>634</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>633</v>
+        <v>635</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>634</v>
+        <v>636</v>
       </c>
       <c r="H16" s="7">
         <v>870</v>
@@ -8116,28 +8113,28 @@
         <v>562660</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>635</v>
+        <v>637</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>636</v>
+        <v>638</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>637</v>
+        <v>639</v>
       </c>
       <c r="M16" s="7">
         <v>1381</v>
       </c>
       <c r="N16" s="7">
-        <v>1127203</v>
+        <v>1127204</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>638</v>
+        <v>640</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>639</v>
+        <v>641</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>640</v>
+        <v>642</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8152,13 +8149,13 @@
         <v>115302</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>641</v>
+        <v>643</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>642</v>
+        <v>644</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>643</v>
+        <v>645</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
@@ -8167,13 +8164,13 @@
         <v>142713</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>644</v>
+        <v>646</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>645</v>
+        <v>647</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>646</v>
+        <v>249</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
@@ -8182,13 +8179,13 @@
         <v>258015</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8203,13 +8200,13 @@
         <v>44145</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>651</v>
+        <v>412</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>652</v>
+        <v>259</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
@@ -8218,13 +8215,13 @@
         <v>41888</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>363</v>
+        <v>652</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>278</v>
+        <v>653</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>506</v>
+        <v>389</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
@@ -8233,13 +8230,13 @@
         <v>86033</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8281,7 +8278,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471251</v>
+        <v>1471252</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8295,7 +8292,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -8307,13 +8304,13 @@
         <v>466792</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="H20" s="7">
         <v>786</v>
@@ -8322,13 +8319,13 @@
         <v>458734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="M20" s="7">
         <v>1306</v>
@@ -8337,13 +8334,13 @@
         <v>925525</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>393</v>
+        <v>663</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>662</v>
+        <v>664</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>663</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8361,10 +8358,10 @@
         <v>623</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>664</v>
+        <v>666</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>665</v>
+        <v>667</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
@@ -8373,13 +8370,13 @@
         <v>94334</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>666</v>
+        <v>668</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>667</v>
+        <v>669</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>668</v>
+        <v>573</v>
       </c>
       <c r="M21" s="7">
         <v>250</v>
@@ -8388,10 +8385,10 @@
         <v>192835</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>670</v>
+        <v>36</v>
       </c>
       <c r="Q21" s="7" t="s">
         <v>671</v>
@@ -8409,13 +8406,13 @@
         <v>33985</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>357</v>
+        <v>672</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
@@ -8424,10 +8421,10 @@
         <v>42667</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>675</v>
+        <v>530</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>676</v>
@@ -8439,13 +8436,13 @@
         <v>76652</v>
       </c>
       <c r="O22" s="7" t="s">
+        <v>557</v>
+      </c>
+      <c r="P22" s="7" t="s">
         <v>677</v>
       </c>
-      <c r="P22" s="7" t="s">
+      <c r="Q22" s="7" t="s">
         <v>678</v>
-      </c>
-      <c r="Q22" s="7" t="s">
-        <v>679</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8501,7 +8498,7 @@
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B24" s="5" t="s">
         <v>10</v>
@@ -8513,13 +8510,13 @@
         <v>527501</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="F24" s="7" t="s">
         <v>680</v>
       </c>
-      <c r="F24" s="7" t="s">
+      <c r="G24" s="7" t="s">
         <v>681</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>682</v>
       </c>
       <c r="H24" s="7">
         <v>1370</v>
@@ -8528,13 +8525,13 @@
         <v>715207</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>682</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>683</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>684</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>685</v>
       </c>
       <c r="M24" s="7">
         <v>2150</v>
@@ -8543,13 +8540,13 @@
         <v>1242708</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>685</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>686</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>687</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>688</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8564,13 +8561,13 @@
         <v>137288</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>688</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>689</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>597</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>690</v>
       </c>
       <c r="H25" s="7">
         <v>267</v>
@@ -8579,13 +8576,13 @@
         <v>269737</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>690</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>691</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>645</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>692</v>
       </c>
       <c r="M25" s="7">
         <v>464</v>
@@ -8594,13 +8591,13 @@
         <v>407025</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>692</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>693</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>694</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>695</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8615,13 +8612,13 @@
         <v>32965</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>695</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>696</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>697</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>698</v>
       </c>
       <c r="H26" s="7">
         <v>71</v>
@@ -8630,13 +8627,13 @@
         <v>41693</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>489</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>698</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>699</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>700</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>483</v>
       </c>
       <c r="M26" s="7">
         <v>122</v>
@@ -8645,13 +8642,13 @@
         <v>74659</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>700</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>701</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>702</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>703</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8663,7 +8660,7 @@
         <v>1028</v>
       </c>
       <c r="D27" s="7">
-        <v>697755</v>
+        <v>697754</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8719,13 +8716,13 @@
         <v>2612174</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>703</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>679</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>704</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>705</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>706</v>
       </c>
       <c r="H28" s="7">
         <v>4209</v>
@@ -8734,13 +8731,13 @@
         <v>2860102</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>705</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>706</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>707</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>708</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>709</v>
       </c>
       <c r="M28" s="7">
         <v>6812</v>
@@ -8749,13 +8746,13 @@
         <v>5472276</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>708</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>709</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>710</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>440</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8770,13 +8767,13 @@
         <v>593964</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>712</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>713</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>714</v>
       </c>
       <c r="H29" s="7">
         <v>856</v>
@@ -8785,13 +8782,13 @@
         <v>748964</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>714</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>715</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>716</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>717</v>
       </c>
       <c r="M29" s="7">
         <v>1447</v>
@@ -8800,13 +8797,13 @@
         <v>1342929</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>716</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>717</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>718</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>719</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>720</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8821,13 +8818,13 @@
         <v>176842</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>722</v>
+        <v>700</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>280</v>
+        <v>720</v>
       </c>
       <c r="H30" s="7">
         <v>298</v>
@@ -8836,13 +8833,13 @@
         <v>223384</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>555</v>
+        <v>232</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>384</v>
+        <v>722</v>
       </c>
       <c r="M30" s="7">
         <v>476</v>
@@ -8851,13 +8848,13 @@
         <v>400226</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>723</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>724</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>725</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>726</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8913,7 +8910,7 @@
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P05A01-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P05A01-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D93919C1-B5D3-48FB-804D-CE70F2D99D0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6028EA4-BF87-4A05-AA6C-E3DB11732718}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9410DFD2-89AD-4C62-88BB-6748ADCA2EC7}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{D38D27AB-9A2D-4A07-81E2-6F597ACEEDDC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="726">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="820">
   <si>
     <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2007 (Tasa respuesta: 99,91%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>Nada</t>
@@ -164,7 +164,7 @@
     <t>100%</t>
   </si>
   <si>
-    <t>25/34</t>
+    <t>25-34</t>
   </si>
   <si>
     <t>54,2%</t>
@@ -248,7 +248,7 @@
     <t>12,6%</t>
   </si>
   <si>
-    <t>35/44</t>
+    <t>35-44</t>
   </si>
   <si>
     <t>53,34%</t>
@@ -332,7 +332,7 @@
     <t>14,61%</t>
   </si>
   <si>
-    <t>45/54</t>
+    <t>45-54</t>
   </si>
   <si>
     <t>52,07%</t>
@@ -416,7 +416,7 @@
     <t>14,59%</t>
   </si>
   <si>
-    <t>55/64</t>
+    <t>55-64</t>
   </si>
   <si>
     <t>51,71%</t>
@@ -500,81 +500,168 @@
     <t>16,73%</t>
   </si>
   <si>
-    <t>65 y más</t>
-  </si>
-  <si>
-    <t>49,56%</t>
-  </si>
-  <si>
-    <t>45,36%</t>
-  </si>
-  <si>
-    <t>54,0%</t>
-  </si>
-  <si>
-    <t>49,83%</t>
-  </si>
-  <si>
-    <t>46,13%</t>
-  </si>
-  <si>
-    <t>53,68%</t>
-  </si>
-  <si>
-    <t>49,72%</t>
-  </si>
-  <si>
-    <t>47,01%</t>
-  </si>
-  <si>
-    <t>52,67%</t>
-  </si>
-  <si>
-    <t>39,74%</t>
-  </si>
-  <si>
-    <t>44,07%</t>
-  </si>
-  <si>
-    <t>33,03%</t>
-  </si>
-  <si>
-    <t>40,71%</t>
-  </si>
-  <si>
-    <t>38,27%</t>
-  </si>
-  <si>
-    <t>35,5%</t>
-  </si>
-  <si>
-    <t>40,94%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>13,6%</t>
-  </si>
-  <si>
-    <t>12,98%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>15,62%</t>
-  </si>
-  <si>
-    <t>12,01%</t>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>43,63%</t>
+  </si>
+  <si>
+    <t>55,53%</t>
+  </si>
+  <si>
+    <t>43,82%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>49,11%</t>
+  </si>
+  <si>
+    <t>45,3%</t>
+  </si>
+  <si>
+    <t>53,27%</t>
+  </si>
+  <si>
+    <t>40,37%</t>
+  </si>
+  <si>
+    <t>34,13%</t>
+  </si>
+  <si>
+    <t>46,66%</t>
+  </si>
+  <si>
+    <t>37,21%</t>
+  </si>
+  <si>
+    <t>32,05%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>38,66%</t>
+  </si>
+  <si>
+    <t>34,68%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>10,48%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
   </si>
   <si>
     <t>13,96%</t>
   </si>
   <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>17,81%</t>
+  </si>
+  <si>
+    <t>12,22%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>50,14%</t>
+  </si>
+  <si>
+    <t>43,41%</t>
+  </si>
+  <si>
+    <t>56,9%</t>
+  </si>
+  <si>
+    <t>50,6%</t>
+  </si>
+  <si>
+    <t>44,52%</t>
+  </si>
+  <si>
+    <t>56,03%</t>
+  </si>
+  <si>
+    <t>50,42%</t>
+  </si>
+  <si>
+    <t>45,88%</t>
+  </si>
+  <si>
+    <t>54,85%</t>
+  </si>
+  <si>
+    <t>38,86%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>45,16%</t>
+  </si>
+  <si>
+    <t>37,16%</t>
+  </si>
+  <si>
+    <t>31,76%</t>
+  </si>
+  <si>
+    <t>42,95%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>33,09%</t>
+  </si>
+  <si>
+    <t>41,9%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>12,24%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>11,76%</t>
+  </si>
+  <si>
+    <t>9,25%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
     <t>52,87%</t>
   </si>
   <si>
@@ -1052,1171 +1139,1366 @@
     <t>4,73%</t>
   </si>
   <si>
-    <t>65,66%</t>
-  </si>
-  <si>
-    <t>61,18%</t>
-  </si>
-  <si>
-    <t>69,65%</t>
-  </si>
-  <si>
-    <t>67,69%</t>
-  </si>
-  <si>
-    <t>64,16%</t>
-  </si>
-  <si>
-    <t>70,8%</t>
-  </si>
-  <si>
-    <t>66,82%</t>
-  </si>
-  <si>
-    <t>64,2%</t>
-  </si>
-  <si>
-    <t>69,75%</t>
-  </si>
-  <si>
-    <t>26,52%</t>
-  </si>
-  <si>
-    <t>22,54%</t>
-  </si>
-  <si>
-    <t>30,52%</t>
+    <t>63,44%</t>
+  </si>
+  <si>
+    <t>57,69%</t>
+  </si>
+  <si>
+    <t>69,67%</t>
+  </si>
+  <si>
+    <t>66,85%</t>
+  </si>
+  <si>
+    <t>62,25%</t>
+  </si>
+  <si>
+    <t>72,17%</t>
+  </si>
+  <si>
+    <t>65,26%</t>
+  </si>
+  <si>
+    <t>60,94%</t>
+  </si>
+  <si>
+    <t>68,71%</t>
+  </si>
+  <si>
+    <t>26,78%</t>
+  </si>
+  <si>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>32,26%</t>
+  </si>
+  <si>
+    <t>25,12%</t>
+  </si>
+  <si>
+    <t>20,54%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
   </si>
   <si>
     <t>25,9%</t>
   </si>
   <si>
-    <t>22,69%</t>
-  </si>
-  <si>
-    <t>28,84%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>23,33%</t>
-  </si>
-  <si>
-    <t>28,52%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>5,56%</t>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>29,52%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>13,9%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,85%</t>
+  </si>
+  <si>
+    <t>6,6%</t>
+  </si>
+  <si>
+    <t>11,48%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>62,27%</t>
+  </si>
+  <si>
+    <t>74,52%</t>
+  </si>
+  <si>
+    <t>68,46%</t>
+  </si>
+  <si>
+    <t>63,74%</t>
+  </si>
+  <si>
+    <t>73,7%</t>
+  </si>
+  <si>
+    <t>68,44%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>71,98%</t>
+  </si>
+  <si>
+    <t>26,2%</t>
+  </si>
+  <si>
+    <t>21,01%</t>
+  </si>
+  <si>
+    <t>32,58%</t>
+  </si>
+  <si>
+    <t>26,62%</t>
+  </si>
+  <si>
+    <t>21,85%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>26,45%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>5,39%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>5,11%</t>
+  </si>
+  <si>
+    <t>3,66%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>66,96%</t>
+  </si>
+  <si>
+    <t>69,98%</t>
+  </si>
+  <si>
+    <t>70,28%</t>
+  </si>
+  <si>
+    <t>68,59%</t>
+  </si>
+  <si>
+    <t>71,65%</t>
+  </si>
+  <si>
+    <t>69,36%</t>
+  </si>
+  <si>
+    <t>68,32%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>25,26%</t>
+  </si>
+  <si>
+    <t>23,74%</t>
+  </si>
+  <si>
+    <t>23,08%</t>
+  </si>
+  <si>
+    <t>21,78%</t>
+  </si>
+  <si>
+    <t>24,73%</t>
+  </si>
+  <si>
+    <t>24,15%</t>
+  </si>
+  <si>
+    <t>23,01%</t>
+  </si>
+  <si>
+    <t>25,15%</t>
+  </si>
+  <si>
+    <t>6,33%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>6,64%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
+  </si>
+  <si>
+    <t>73,55%</t>
+  </si>
+  <si>
+    <t>69,16%</t>
+  </si>
+  <si>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>69,14%</t>
+  </si>
+  <si>
+    <t>64,5%</t>
+  </si>
+  <si>
+    <t>73,46%</t>
+  </si>
+  <si>
+    <t>71,41%</t>
+  </si>
+  <si>
+    <t>74,64%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>16,96%</t>
+  </si>
+  <si>
+    <t>24,48%</t>
+  </si>
+  <si>
+    <t>24,59%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>28,97%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>19,74%</t>
+  </si>
+  <si>
+    <t>25,24%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,27%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>4,69%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>67,71%</t>
+  </si>
+  <si>
+    <t>63,7%</t>
+  </si>
+  <si>
+    <t>71,5%</t>
+  </si>
+  <si>
+    <t>69,3%</t>
+  </si>
+  <si>
+    <t>65,76%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>65,5%</t>
+  </si>
+  <si>
+    <t>71,09%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>19,79%</t>
+  </si>
+  <si>
+    <t>26,83%</t>
+  </si>
+  <si>
+    <t>25,61%</t>
+  </si>
+  <si>
+    <t>23,25%</t>
+  </si>
+  <si>
+    <t>28,25%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
+  </si>
+  <si>
+    <t>3,21%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>7,13%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>7,5%</t>
+  </si>
+  <si>
+    <t>71,04%</t>
+  </si>
+  <si>
+    <t>67,16%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>73,07%</t>
+  </si>
+  <si>
+    <t>76,21%</t>
+  </si>
+  <si>
+    <t>72,05%</t>
+  </si>
+  <si>
+    <t>69,35%</t>
+  </si>
+  <si>
+    <t>74,29%</t>
+  </si>
+  <si>
+    <t>23,67%</t>
+  </si>
+  <si>
+    <t>27,5%</t>
+  </si>
+  <si>
+    <t>20,19%</t>
+  </si>
+  <si>
+    <t>17,36%</t>
+  </si>
+  <si>
+    <t>23,48%</t>
+  </si>
+  <si>
+    <t>21,94%</t>
+  </si>
+  <si>
+    <t>19,83%</t>
+  </si>
+  <si>
+    <t>24,55%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>6,01%</t>
+  </si>
+  <si>
+    <t>4,89%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>71,62%</t>
+  </si>
+  <si>
+    <t>67,96%</t>
+  </si>
+  <si>
+    <t>75,52%</t>
+  </si>
+  <si>
+    <t>70,49%</t>
+  </si>
+  <si>
+    <t>66,5%</t>
+  </si>
+  <si>
+    <t>73,69%</t>
+  </si>
+  <si>
+    <t>71,05%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>24,47%</t>
+  </si>
+  <si>
+    <t>20,79%</t>
+  </si>
+  <si>
+    <t>22,91%</t>
+  </si>
+  <si>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>26,59%</t>
+  </si>
+  <si>
+    <t>23,69%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>26,15%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>72,08%</t>
+  </si>
+  <si>
+    <t>67,42%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>67,12%</t>
+  </si>
+  <si>
+    <t>75,7%</t>
+  </si>
+  <si>
+    <t>72,03%</t>
+  </si>
+  <si>
+    <t>68,91%</t>
+  </si>
+  <si>
+    <t>74,95%</t>
+  </si>
+  <si>
+    <t>21,43%</t>
+  </si>
+  <si>
+    <t>17,68%</t>
+  </si>
+  <si>
+    <t>25,72%</t>
+  </si>
+  <si>
+    <t>20,85%</t>
+  </si>
+  <si>
+    <t>17,4%</t>
+  </si>
+  <si>
+    <t>24,66%</t>
+  </si>
+  <si>
+    <t>21,13%</t>
+  </si>
+  <si>
+    <t>18,53%</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>4,85%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>71,48%</t>
+  </si>
+  <si>
+    <t>66,69%</t>
+  </si>
+  <si>
+    <t>73,76%</t>
+  </si>
+  <si>
+    <t>68,98%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>72,68%</t>
+  </si>
+  <si>
+    <t>69,09%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>24,05%</t>
+  </si>
+  <si>
+    <t>18,94%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>16,79%</t>
+  </si>
+  <si>
+    <t>25,42%</t>
+  </si>
+  <si>
+    <t>22,23%</t>
+  </si>
+  <si>
+    <t>19,33%</t>
+  </si>
+  <si>
+    <t>25,62%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>5,63%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>6,96%</t>
+  </si>
+  <si>
+    <t>70,44%</t>
+  </si>
+  <si>
+    <t>64,75%</t>
+  </si>
+  <si>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>72,3%</t>
+  </si>
+  <si>
+    <t>66,86%</t>
+  </si>
+  <si>
+    <t>77,06%</t>
+  </si>
+  <si>
+    <t>71,57%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>75,34%</t>
+  </si>
+  <si>
+    <t>20,25%</t>
+  </si>
+  <si>
+    <t>29,62%</t>
+  </si>
+  <si>
+    <t>22,1%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>26,84%</t>
+  </si>
+  <si>
+    <t>23,03%</t>
+  </si>
+  <si>
+    <t>19,75%</t>
+  </si>
+  <si>
+    <t>26,47%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>5,6%</t>
+  </si>
+  <si>
+    <t>3,19%</t>
+  </si>
+  <si>
+    <t>5,4%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>71,03%</t>
+  </si>
+  <si>
+    <t>69,48%</t>
+  </si>
+  <si>
+    <t>72,52%</t>
+  </si>
+  <si>
+    <t>71,39%</t>
+  </si>
+  <si>
+    <t>69,8%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>23,87%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>25,49%</t>
+  </si>
+  <si>
+    <t>22,07%</t>
+  </si>
+  <si>
+    <t>20,65%</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>22,96%</t>
+  </si>
+  <si>
+    <t>22,0%</t>
+  </si>
+  <si>
+    <t>23,96%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>6,54%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>6,41%</t>
+  </si>
+  <si>
+    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
+  </si>
+  <si>
+    <t>82,67%</t>
+  </si>
+  <si>
+    <t>76,43%</t>
+  </si>
+  <si>
+    <t>88,66%</t>
+  </si>
+  <si>
+    <t>61,34%</t>
+  </si>
+  <si>
+    <t>75,96%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
+  </si>
+  <si>
+    <t>81,12%</t>
+  </si>
+  <si>
+    <t>13,65%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>22,89%</t>
+  </si>
+  <si>
+    <t>16,95%</t>
+  </si>
+  <si>
+    <t>30,01%</t>
+  </si>
+  <si>
+    <t>17,71%</t>
+  </si>
+  <si>
+    <t>13,35%</t>
+  </si>
+  <si>
+    <t>22,11%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>7,35%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>13,8%</t>
+  </si>
+  <si>
+    <t>5,82%</t>
+  </si>
+  <si>
+    <t>3,74%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>74,22%</t>
+  </si>
+  <si>
+    <t>68,52%</t>
+  </si>
+  <si>
+    <t>79,43%</t>
+  </si>
+  <si>
+    <t>82,79%</t>
+  </si>
+  <si>
+    <t>78,28%</t>
+  </si>
+  <si>
+    <t>88,88%</t>
+  </si>
+  <si>
+    <t>78,91%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>83,36%</t>
+  </si>
+  <si>
+    <t>19,95%</t>
+  </si>
+  <si>
+    <t>15,55%</t>
+  </si>
+  <si>
+    <t>25,27%</t>
+  </si>
+  <si>
+    <t>12,31%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>15,81%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>19,19%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>8,96%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>77,62%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>80,15%</t>
+  </si>
+  <si>
+    <t>76,88%</t>
+  </si>
+  <si>
+    <t>85,38%</t>
+  </si>
+  <si>
+    <t>78,95%</t>
+  </si>
+  <si>
+    <t>76,26%</t>
+  </si>
+  <si>
+    <t>82,09%</t>
+  </si>
+  <si>
+    <t>14,52%</t>
+  </si>
+  <si>
+    <t>21,73%</t>
+  </si>
+  <si>
+    <t>13,91%</t>
   </si>
   <si>
     <t>10,46%</t>
   </si>
   <si>
-    <t>6,4%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>66,96%</t>
-  </si>
-  <si>
-    <t>69,98%</t>
-  </si>
-  <si>
-    <t>70,28%</t>
-  </si>
-  <si>
-    <t>68,59%</t>
-  </si>
-  <si>
-    <t>71,65%</t>
-  </si>
-  <si>
-    <t>69,36%</t>
-  </si>
-  <si>
-    <t>68,32%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>25,26%</t>
-  </si>
-  <si>
-    <t>23,74%</t>
-  </si>
-  <si>
-    <t>26,62%</t>
-  </si>
-  <si>
-    <t>23,08%</t>
-  </si>
-  <si>
-    <t>21,78%</t>
-  </si>
-  <si>
-    <t>24,73%</t>
-  </si>
-  <si>
-    <t>24,15%</t>
-  </si>
-  <si>
-    <t>23,01%</t>
-  </si>
-  <si>
-    <t>25,15%</t>
-  </si>
-  <si>
-    <t>6,33%</t>
-  </si>
-  <si>
-    <t>5,53%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>6,64%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>5,93%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2016 (Tasa respuesta: 99,89%)</t>
-  </si>
-  <si>
-    <t>73,55%</t>
-  </si>
-  <si>
-    <t>69,16%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>69,14%</t>
-  </si>
-  <si>
-    <t>64,5%</t>
-  </si>
-  <si>
-    <t>73,46%</t>
-  </si>
-  <si>
-    <t>71,41%</t>
-  </si>
-  <si>
-    <t>68,44%</t>
-  </si>
-  <si>
-    <t>74,64%</t>
-  </si>
-  <si>
-    <t>20,41%</t>
-  </si>
-  <si>
-    <t>16,96%</t>
-  </si>
-  <si>
-    <t>24,48%</t>
-  </si>
-  <si>
-    <t>24,59%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>28,97%</t>
-  </si>
-  <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>19,74%</t>
-  </si>
-  <si>
-    <t>25,24%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>8,86%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>4,69%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>67,71%</t>
-  </si>
-  <si>
-    <t>63,7%</t>
-  </si>
-  <si>
-    <t>71,5%</t>
-  </si>
-  <si>
-    <t>69,3%</t>
-  </si>
-  <si>
-    <t>65,76%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>65,5%</t>
-  </si>
-  <si>
-    <t>71,09%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>24,31%</t>
-  </si>
-  <si>
-    <t>31,78%</t>
-  </si>
-  <si>
-    <t>19,79%</t>
-  </si>
-  <si>
-    <t>26,83%</t>
-  </si>
-  <si>
-    <t>25,61%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>28,25%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>3,21%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>7,13%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>9,44%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>7,5%</t>
-  </si>
-  <si>
-    <t>71,04%</t>
-  </si>
-  <si>
-    <t>67,16%</t>
-  </si>
-  <si>
-    <t>74,42%</t>
-  </si>
-  <si>
-    <t>73,07%</t>
-  </si>
-  <si>
-    <t>76,21%</t>
-  </si>
-  <si>
-    <t>72,05%</t>
-  </si>
-  <si>
-    <t>69,35%</t>
-  </si>
-  <si>
-    <t>74,29%</t>
-  </si>
-  <si>
-    <t>23,67%</t>
-  </si>
-  <si>
-    <t>27,5%</t>
-  </si>
-  <si>
-    <t>20,19%</t>
-  </si>
-  <si>
-    <t>17,36%</t>
-  </si>
-  <si>
-    <t>23,48%</t>
-  </si>
-  <si>
-    <t>21,94%</t>
-  </si>
-  <si>
-    <t>19,83%</t>
-  </si>
-  <si>
-    <t>24,55%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>6,01%</t>
-  </si>
-  <si>
-    <t>4,89%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
-  </si>
-  <si>
-    <t>71,62%</t>
-  </si>
-  <si>
-    <t>67,96%</t>
-  </si>
-  <si>
-    <t>75,52%</t>
-  </si>
-  <si>
-    <t>70,49%</t>
-  </si>
-  <si>
-    <t>66,5%</t>
-  </si>
-  <si>
-    <t>73,69%</t>
-  </si>
-  <si>
-    <t>71,05%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>24,47%</t>
-  </si>
-  <si>
-    <t>20,79%</t>
-  </si>
-  <si>
-    <t>22,91%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>23,69%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>26,15%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>6,6%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,51%</t>
-  </si>
-  <si>
-    <t>72,08%</t>
-  </si>
-  <si>
-    <t>67,42%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>71,98%</t>
-  </si>
-  <si>
-    <t>67,12%</t>
-  </si>
-  <si>
-    <t>75,7%</t>
-  </si>
-  <si>
-    <t>72,03%</t>
-  </si>
-  <si>
-    <t>68,91%</t>
-  </si>
-  <si>
-    <t>74,95%</t>
-  </si>
-  <si>
-    <t>21,43%</t>
-  </si>
-  <si>
-    <t>17,68%</t>
-  </si>
-  <si>
-    <t>25,72%</t>
-  </si>
-  <si>
-    <t>20,85%</t>
-  </si>
-  <si>
-    <t>17,4%</t>
-  </si>
-  <si>
-    <t>24,66%</t>
-  </si>
-  <si>
-    <t>21,13%</t>
-  </si>
-  <si>
-    <t>18,53%</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>4,85%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>71,03%</t>
-  </si>
-  <si>
-    <t>67,37%</t>
-  </si>
-  <si>
-    <t>74,79%</t>
-  </si>
-  <si>
-    <t>69,28%</t>
-  </si>
-  <si>
-    <t>76,74%</t>
-  </si>
-  <si>
-    <t>72,15%</t>
-  </si>
-  <si>
-    <t>24,23%</t>
-  </si>
-  <si>
-    <t>20,91%</t>
-  </si>
-  <si>
-    <t>27,89%</t>
-  </si>
-  <si>
-    <t>21,38%</t>
-  </si>
-  <si>
-    <t>18,14%</t>
-  </si>
-  <si>
-    <t>24,89%</t>
-  </si>
-  <si>
-    <t>22,61%</t>
-  </si>
-  <si>
-    <t>20,45%</t>
-  </si>
-  <si>
-    <t>25,3%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,62%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>4,08%</t>
-  </si>
-  <si>
-    <t>6,76%</t>
-  </si>
-  <si>
-    <t>69,48%</t>
-  </si>
-  <si>
-    <t>72,52%</t>
-  </si>
-  <si>
-    <t>71,39%</t>
-  </si>
-  <si>
-    <t>69,8%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>23,87%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>25,49%</t>
-  </si>
-  <si>
-    <t>22,07%</t>
-  </si>
-  <si>
-    <t>20,65%</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>22,96%</t>
-  </si>
-  <si>
-    <t>22,0%</t>
-  </si>
-  <si>
-    <t>23,96%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>4,44%</t>
-  </si>
-  <si>
-    <t>6,54%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>6,41%</t>
-  </si>
-  <si>
-    <t>Población según si en el barrio donde vive el ruido procedente del exterior de su vivienda le resulta molesto en 2023 (Tasa respuesta: 99,91%)</t>
-  </si>
-  <si>
-    <t>81,91%</t>
-  </si>
-  <si>
-    <t>75,48%</t>
-  </si>
-  <si>
-    <t>87,65%</t>
-  </si>
-  <si>
-    <t>68,7%</t>
-  </si>
-  <si>
-    <t>61,54%</t>
-  </si>
-  <si>
-    <t>75,98%</t>
-  </si>
-  <si>
-    <t>75,51%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,23%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>20,18%</t>
-  </si>
-  <si>
-    <t>22,75%</t>
-  </si>
-  <si>
-    <t>16,65%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>18,31%</t>
-  </si>
-  <si>
-    <t>14,15%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>73,53%</t>
-  </si>
-  <si>
-    <t>67,84%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>80,04%</t>
-  </si>
-  <si>
-    <t>75,87%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>77,04%</t>
-  </si>
-  <si>
-    <t>73,23%</t>
-  </si>
-  <si>
-    <t>79,75%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>14,27%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>17,87%</t>
-  </si>
-  <si>
-    <t>17,19%</t>
-  </si>
-  <si>
-    <t>14,44%</t>
-  </si>
-  <si>
-    <t>20,39%</t>
-  </si>
-  <si>
-    <t>3,22%</t>
-  </si>
-  <si>
-    <t>8,96%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>4,24%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>80,65%</t>
-  </si>
-  <si>
-    <t>78,87%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>78,06%</t>
-  </si>
-  <si>
-    <t>75,39%</t>
-  </si>
-  <si>
-    <t>80,77%</t>
-  </si>
-  <si>
-    <t>18,22%</t>
-  </si>
-  <si>
-    <t>14,93%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>18,17%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>4,18%</t>
+  </si>
+  <si>
+    <t>7,9%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>82,76%</t>
+  </si>
+  <si>
+    <t>75,2%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>73,59%</t>
+  </si>
+  <si>
+    <t>79,86%</t>
+  </si>
+  <si>
+    <t>79,93%</t>
+  </si>
+  <si>
+    <t>75,16%</t>
+  </si>
+  <si>
+    <t>88,01%</t>
+  </si>
+  <si>
+    <t>12,09%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>17,62%</t>
+  </si>
+  <si>
+    <t>18,19%</t>
+  </si>
+  <si>
+    <t>15,08%</t>
+  </si>
+  <si>
+    <t>20,73%</t>
   </si>
   <si>
     <t>14,81%</t>
   </si>
   <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>17,55%</t>
+    <t>9,46%</t>
+  </si>
+  <si>
+    <t>18,41%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>78,1%</t>
+  </si>
+  <si>
+    <t>74,76%</t>
+  </si>
+  <si>
+    <t>81,38%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,16%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>75,54%</t>
+  </si>
+  <si>
+    <t>79,92%</t>
+  </si>
+  <si>
+    <t>16,25%</t>
+  </si>
+  <si>
+    <t>13,52%</t>
+  </si>
+  <si>
+    <t>19,38%</t>
+  </si>
+  <si>
+    <t>15,51%</t>
+  </si>
+  <si>
+    <t>13,16%</t>
+  </si>
+  <si>
+    <t>17,89%</t>
+  </si>
+  <si>
+    <t>15,89%</t>
+  </si>
+  <si>
+    <t>13,83%</t>
+  </si>
+  <si>
+    <t>17,83%</t>
+  </si>
+  <si>
+    <t>5,64%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>5,58%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>76,12%</t>
+  </si>
+  <si>
+    <t>72,51%</t>
+  </si>
+  <si>
+    <t>79,57%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>27,35%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>18,4%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>21,65%</t>
+  </si>
+  <si>
+    <t>44,74%</t>
+  </si>
+  <si>
+    <t>79,65%</t>
+  </si>
+  <si>
+    <t>34,81%</t>
+  </si>
+  <si>
+    <t>5,48%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>3,39%</t>
+  </si>
+  <si>
+    <t>1,23%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>75,45%</t>
+  </si>
+  <si>
+    <t>70,95%</t>
+  </si>
+  <si>
+    <t>79,18%</t>
+  </si>
+  <si>
+    <t>78,96%</t>
+  </si>
+  <si>
+    <t>81,7%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
+  </si>
+  <si>
+    <t>75,02%</t>
+  </si>
+  <si>
+    <t>20,81%</t>
+  </si>
+  <si>
+    <t>17,41%</t>
+  </si>
+  <si>
+    <t>24,79%</t>
+  </si>
+  <si>
+    <t>17,17%</t>
+  </si>
+  <si>
+    <t>20,24%</t>
+  </si>
+  <si>
+    <t>18,62%</t>
   </si>
   <si>
     <t>16,44%</t>
   </si>
   <si>
-    <t>14,09%</t>
-  </si>
-  <si>
-    <t>18,75%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>4,77%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,26%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>77,98%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>82,72%</t>
-  </si>
-  <si>
-    <t>75,3%</t>
-  </si>
-  <si>
-    <t>72,49%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>76,62%</t>
-  </si>
-  <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>79,48%</t>
-  </si>
-  <si>
-    <t>15,93%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>19,06%</t>
-  </si>
-  <si>
-    <t>19,1%</t>
-  </si>
-  <si>
-    <t>16,69%</t>
-  </si>
-  <si>
-    <t>17,54%</t>
-  </si>
-  <si>
-    <t>15,34%</t>
-  </si>
-  <si>
-    <t>19,71%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>5,61%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>7,35%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>74,38%</t>
-  </si>
-  <si>
-    <t>81,07%</t>
-  </si>
-  <si>
-    <t>77,0%</t>
-  </si>
-  <si>
-    <t>74,15%</t>
-  </si>
-  <si>
-    <t>79,84%</t>
-  </si>
-  <si>
-    <t>77,45%</t>
-  </si>
-  <si>
-    <t>75,24%</t>
-  </si>
-  <si>
-    <t>79,64%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>19,63%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>13,42%</t>
-  </si>
-  <si>
-    <t>16,14%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>7,64%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>5,28%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>75,6%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>69,66%</t>
-  </si>
-  <si>
-    <t>51,59%</t>
-  </si>
-  <si>
-    <t>79,09%</t>
-  </si>
-  <si>
-    <t>72,07%</t>
-  </si>
-  <si>
-    <t>57,43%</t>
-  </si>
-  <si>
-    <t>77,79%</t>
-  </si>
-  <si>
-    <t>17,08%</t>
-  </si>
-  <si>
-    <t>22,02%</t>
-  </si>
-  <si>
-    <t>16,52%</t>
-  </si>
-  <si>
-    <t>45,43%</t>
-  </si>
-  <si>
-    <t>23,6%</t>
-  </si>
-  <si>
-    <t>17,65%</t>
-  </si>
-  <si>
-    <t>39,03%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>2,71%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>79,04%</t>
-  </si>
-  <si>
-    <t>74,63%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>77,23%</t>
-  </si>
-  <si>
-    <t>75,84%</t>
-  </si>
-  <si>
-    <t>71,18%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>17,56%</t>
-  </si>
-  <si>
-    <t>15,94%</t>
-  </si>
-  <si>
-    <t>18,92%</t>
-  </si>
-  <si>
-    <t>19,54%</t>
-  </si>
-  <si>
-    <t>28,44%</t>
-  </si>
-  <si>
-    <t>18,61%</t>
-  </si>
-  <si>
-    <t>17,05%</t>
-  </si>
-  <si>
-    <t>23,82%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>4,91%</t>
-  </si>
-  <si>
-    <t>6,14%</t>
+    <t>20,98%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,8%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>78,85%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>83,63%</t>
+  </si>
+  <si>
+    <t>73,63%</t>
+  </si>
+  <si>
+    <t>59,68%</t>
+  </si>
+  <si>
+    <t>78,52%</t>
+  </si>
+  <si>
+    <t>76,15%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>16,18%</t>
+  </si>
+  <si>
+    <t>12,63%</t>
+  </si>
+  <si>
+    <t>17,92%</t>
+  </si>
+  <si>
+    <t>20,94%</t>
+  </si>
+  <si>
+    <t>35,64%</t>
+  </si>
+  <si>
+    <t>18,64%</t>
+  </si>
+  <si>
+    <t>15,8%</t>
+  </si>
+  <si>
+    <t>4,97%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>4,39%</t>
+  </si>
+  <si>
+    <t>6,25%</t>
+  </si>
+  <si>
+    <t>4,45%</t>
+  </si>
+  <si>
+    <t>5,9%</t>
   </si>
 </sst>
 </file>
@@ -2628,8 +2910,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2139E1D2-52C3-4733-BF3A-D6ED14E8E306}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CDEE1F2-DFE7-4DA5-84D3-12163D7CC14F}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3776,10 +4058,10 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>261</v>
+        <v>150</v>
       </c>
       <c r="D24" s="7">
-        <v>248599</v>
+        <v>143808</v>
       </c>
       <c r="E24" s="7" t="s">
         <v>154</v>
@@ -3791,34 +4073,34 @@
         <v>156</v>
       </c>
       <c r="H24" s="7">
-        <v>326</v>
+        <v>179</v>
       </c>
       <c r="I24" s="7">
-        <v>337279</v>
+        <v>168312</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>329</v>
+      </c>
+      <c r="N24" s="7">
+        <v>312120</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M24" s="7">
-        <v>587</v>
-      </c>
-      <c r="N24" s="7">
-        <v>585877</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>160</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>161</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3827,49 +4109,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>204</v>
+        <v>120</v>
       </c>
       <c r="D25" s="7">
-        <v>199354</v>
+        <v>118127</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>58</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>164</v>
       </c>
       <c r="H25" s="7">
-        <v>248</v>
+        <v>141</v>
       </c>
       <c r="I25" s="7">
-        <v>251679</v>
+        <v>127592</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>21</v>
+        <v>165</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="M25" s="7">
-        <v>452</v>
+        <v>261</v>
       </c>
       <c r="N25" s="7">
-        <v>451033</v>
+        <v>245719</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3878,49 +4160,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>57</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7">
-        <v>53645</v>
+        <v>30648</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H26" s="7">
-        <v>87</v>
+        <v>51</v>
       </c>
       <c r="I26" s="7">
-        <v>87884</v>
+        <v>47030</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="M26" s="7">
-        <v>144</v>
+        <v>84</v>
       </c>
       <c r="N26" s="7">
-        <v>141530</v>
+        <v>77678</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>123</v>
+        <v>178</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3929,10 +4211,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>522</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>501598</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -3944,10 +4226,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -3959,10 +4241,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1183</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1178440</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -3976,55 +4258,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1686</v>
+        <v>111</v>
       </c>
       <c r="D28" s="7">
-        <v>1731295</v>
+        <v>104791</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="H28" s="7">
-        <v>1651</v>
+        <v>147</v>
       </c>
       <c r="I28" s="7">
-        <v>1697680</v>
+        <v>168966</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="M28" s="7">
-        <v>3337</v>
+        <v>258</v>
       </c>
       <c r="N28" s="7">
-        <v>3428975</v>
+        <v>273757</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -4033,49 +4315,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>1211</v>
+        <v>84</v>
       </c>
       <c r="D29" s="7">
-        <v>1216475</v>
+        <v>81227</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="H29" s="7">
-        <v>1196</v>
+        <v>107</v>
       </c>
       <c r="I29" s="7">
-        <v>1221767</v>
+        <v>124087</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K29" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="M29" s="7">
         <v>191</v>
       </c>
-      <c r="L29" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="M29" s="7">
-        <v>2407</v>
-      </c>
       <c r="N29" s="7">
-        <v>2438242</v>
+        <v>205315</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -4084,49 +4366,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>315</v>
+        <v>24</v>
       </c>
       <c r="D30" s="7">
-        <v>327061</v>
+        <v>22997</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>196</v>
+        <v>34</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="H30" s="7">
-        <v>446</v>
+        <v>36</v>
       </c>
       <c r="I30" s="7">
-        <v>455922</v>
+        <v>40854</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>96</v>
+        <v>203</v>
       </c>
       <c r="M30" s="7">
-        <v>761</v>
+        <v>60</v>
       </c>
       <c r="N30" s="7">
-        <v>782983</v>
+        <v>63851</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -4135,63 +4417,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>219</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209015</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>509</v>
+      </c>
+      <c r="N31" s="7">
+        <v>542923</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1686</v>
+      </c>
+      <c r="D32" s="7">
+        <v>1731295</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="H32" s="7">
+        <v>1651</v>
+      </c>
+      <c r="I32" s="7">
+        <v>1697680</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="M32" s="7">
+        <v>3337</v>
+      </c>
+      <c r="N32" s="7">
+        <v>3428975</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>1211</v>
+      </c>
+      <c r="D33" s="7">
+        <v>1216475</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="H33" s="7">
+        <v>1196</v>
+      </c>
+      <c r="I33" s="7">
+        <v>1221767</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="7">
+        <v>2407</v>
+      </c>
+      <c r="N33" s="7">
+        <v>2438242</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>315</v>
+      </c>
+      <c r="D34" s="7">
+        <v>327061</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="7">
+        <v>446</v>
+      </c>
+      <c r="I34" s="7">
+        <v>455922</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="M34" s="7">
+        <v>761</v>
+      </c>
+      <c r="N34" s="7">
+        <v>782983</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3212</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3274831</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3293</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3375369</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6505</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6650200</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4204,8 +4693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53A41868-C40B-4774-B42A-EF14288A14F8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF273240-8BA7-4C83-B6EA-CC54F56A19A6}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4221,7 +4710,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4328,13 +4817,13 @@
         <v>314620</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>206</v>
+        <v>235</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>207</v>
+        <v>236</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>208</v>
+        <v>237</v>
       </c>
       <c r="H4" s="7">
         <v>307</v>
@@ -4343,13 +4832,13 @@
         <v>310910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>209</v>
+        <v>238</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="M4" s="7">
         <v>615</v>
@@ -4358,13 +4847,13 @@
         <v>625530</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>212</v>
+        <v>241</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>213</v>
+        <v>242</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>214</v>
+        <v>243</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4379,13 +4868,13 @@
         <v>117895</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>215</v>
+        <v>244</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>216</v>
+        <v>245</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="H5" s="7">
         <v>97</v>
@@ -4394,13 +4883,13 @@
         <v>101640</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>218</v>
+        <v>247</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>219</v>
+        <v>248</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>249</v>
       </c>
       <c r="M5" s="7">
         <v>213</v>
@@ -4409,13 +4898,13 @@
         <v>219536</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>221</v>
+        <v>250</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>222</v>
+        <v>251</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>223</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4430,13 +4919,13 @@
         <v>20679</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>253</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>225</v>
+        <v>254</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>226</v>
+        <v>255</v>
       </c>
       <c r="H6" s="7">
         <v>16</v>
@@ -4445,13 +4934,13 @@
         <v>16666</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>227</v>
+        <v>256</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>228</v>
+        <v>257</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>229</v>
+        <v>258</v>
       </c>
       <c r="M6" s="7">
         <v>37</v>
@@ -4460,13 +4949,13 @@
         <v>37344</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>230</v>
+        <v>259</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>231</v>
+        <v>260</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>232</v>
+        <v>261</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4534,13 +5023,13 @@
         <v>470015</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>233</v>
+        <v>262</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>234</v>
+        <v>263</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>235</v>
+        <v>264</v>
       </c>
       <c r="H8" s="7">
         <v>398</v>
@@ -4549,13 +5038,13 @@
         <v>425620</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>236</v>
+        <v>265</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>237</v>
+        <v>266</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>238</v>
+        <v>267</v>
       </c>
       <c r="M8" s="7">
         <v>850</v>
@@ -4564,13 +5053,13 @@
         <v>895635</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>239</v>
+        <v>268</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>240</v>
+        <v>269</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>241</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4585,13 +5074,13 @@
         <v>168717</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>242</v>
+        <v>271</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>243</v>
+        <v>272</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="H9" s="7">
         <v>131</v>
@@ -4600,13 +5089,13 @@
         <v>140508</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>245</v>
+        <v>274</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>246</v>
+        <v>275</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>247</v>
+        <v>276</v>
       </c>
       <c r="M9" s="7">
         <v>301</v>
@@ -4615,13 +5104,13 @@
         <v>309226</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>248</v>
+        <v>277</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>249</v>
+        <v>278</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4636,13 +5125,13 @@
         <v>46811</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>251</v>
+        <v>280</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>252</v>
+        <v>281</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>253</v>
+        <v>282</v>
       </c>
       <c r="H10" s="7">
         <v>42</v>
@@ -4651,13 +5140,13 @@
         <v>44127</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>254</v>
+        <v>283</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>255</v>
+        <v>284</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="M10" s="7">
         <v>86</v>
@@ -4666,13 +5155,13 @@
         <v>90938</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>257</v>
+        <v>286</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>258</v>
+        <v>287</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>259</v>
+        <v>288</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4740,28 +5229,28 @@
         <v>473351</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>260</v>
+        <v>289</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="H12" s="7">
         <v>489</v>
       </c>
       <c r="I12" s="7">
-        <v>521623</v>
+        <v>521624</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>263</v>
+        <v>292</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>264</v>
+        <v>293</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>265</v>
+        <v>294</v>
       </c>
       <c r="M12" s="7">
         <v>938</v>
@@ -4770,13 +5259,13 @@
         <v>994975</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>266</v>
+        <v>295</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>267</v>
+        <v>296</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>268</v>
+        <v>297</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4791,13 +5280,13 @@
         <v>166358</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>269</v>
+        <v>298</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>270</v>
+        <v>299</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -4806,13 +5295,13 @@
         <v>144123</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>272</v>
+        <v>301</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>273</v>
+        <v>302</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="M13" s="7">
         <v>297</v>
@@ -4821,13 +5310,13 @@
         <v>310481</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4842,13 +5331,13 @@
         <v>40532</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="H14" s="7">
         <v>42</v>
@@ -4857,13 +5346,13 @@
         <v>43384</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>282</v>
+        <v>311</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>283</v>
+        <v>312</v>
       </c>
       <c r="M14" s="7">
         <v>80</v>
@@ -4872,13 +5361,13 @@
         <v>83916</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>285</v>
+        <v>314</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4905,7 +5394,7 @@
         <v>666</v>
       </c>
       <c r="I15" s="7">
-        <v>709130</v>
+        <v>709131</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -4946,13 +5435,13 @@
         <v>410541</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>287</v>
+        <v>316</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>288</v>
+        <v>317</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>318</v>
       </c>
       <c r="H16" s="7">
         <v>374</v>
@@ -4961,13 +5450,13 @@
         <v>431995</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>319</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>321</v>
       </c>
       <c r="M16" s="7">
         <v>742</v>
@@ -4976,13 +5465,13 @@
         <v>842537</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>322</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>323</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4997,13 +5486,13 @@
         <v>161689</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>325</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>326</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>217</v>
+        <v>246</v>
       </c>
       <c r="H17" s="7">
         <v>119</v>
@@ -5012,13 +5501,13 @@
         <v>131217</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>327</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>328</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>329</v>
       </c>
       <c r="M17" s="7">
         <v>262</v>
@@ -5027,13 +5516,13 @@
         <v>292907</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>330</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>331</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>332</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5048,13 +5537,13 @@
         <v>41362</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>305</v>
+        <v>334</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>306</v>
+        <v>335</v>
       </c>
       <c r="H18" s="7">
         <v>45</v>
@@ -5063,13 +5552,13 @@
         <v>51925</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>307</v>
+        <v>336</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>308</v>
+        <v>337</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>309</v>
+        <v>338</v>
       </c>
       <c r="M18" s="7">
         <v>81</v>
@@ -5078,13 +5567,13 @@
         <v>93288</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>310</v>
+        <v>339</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>311</v>
+        <v>340</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>312</v>
+        <v>341</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5152,13 +5641,13 @@
         <v>304619</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>342</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>291</v>
+        <v>320</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>314</v>
+        <v>343</v>
       </c>
       <c r="H20" s="7">
         <v>276</v>
@@ -5167,28 +5656,28 @@
         <v>303615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>315</v>
+        <v>344</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>345</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>346</v>
       </c>
       <c r="M20" s="7">
         <v>554</v>
       </c>
       <c r="N20" s="7">
-        <v>608235</v>
+        <v>608234</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>348</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5203,13 +5692,13 @@
         <v>101255</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>322</v>
+        <v>351</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="H21" s="7">
         <v>99</v>
@@ -5218,28 +5707,28 @@
         <v>109961</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>323</v>
+        <v>352</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>353</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>325</v>
+        <v>354</v>
       </c>
       <c r="M21" s="7">
         <v>192</v>
       </c>
       <c r="N21" s="7">
-        <v>211217</v>
+        <v>211216</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>326</v>
+        <v>355</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>327</v>
+        <v>356</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>328</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5254,13 +5743,13 @@
         <v>23555</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>329</v>
+        <v>358</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>330</v>
+        <v>359</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="H22" s="7">
         <v>29</v>
@@ -5269,13 +5758,13 @@
         <v>32165</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>332</v>
+        <v>361</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>333</v>
+        <v>362</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>334</v>
+        <v>363</v>
       </c>
       <c r="M22" s="7">
         <v>51</v>
@@ -5284,13 +5773,13 @@
         <v>55720</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>335</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>336</v>
+        <v>365</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5332,7 +5821,7 @@
         <v>797</v>
       </c>
       <c r="N23" s="7">
-        <v>875172</v>
+        <v>875171</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -5352,49 +5841,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>332</v>
+        <v>180</v>
       </c>
       <c r="D24" s="7">
-        <v>366664</v>
+        <v>196530</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>337</v>
+        <v>366</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>338</v>
+        <v>367</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>339</v>
+        <v>368</v>
       </c>
       <c r="H24" s="7">
-        <v>469</v>
+        <v>229</v>
       </c>
       <c r="I24" s="7">
-        <v>502941</v>
+        <v>236650</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>340</v>
+        <v>369</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>341</v>
+        <v>370</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>342</v>
+        <v>371</v>
       </c>
       <c r="M24" s="7">
-        <v>801</v>
+        <v>409</v>
       </c>
       <c r="N24" s="7">
-        <v>869605</v>
+        <v>433180</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>343</v>
+        <v>372</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>344</v>
+        <v>373</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>345</v>
+        <v>374</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5403,49 +5892,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>131</v>
+        <v>75</v>
       </c>
       <c r="D25" s="7">
-        <v>148111</v>
+        <v>82959</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>346</v>
+        <v>375</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>347</v>
+        <v>376</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>348</v>
+        <v>377</v>
       </c>
       <c r="H25" s="7">
-        <v>181</v>
+        <v>88</v>
       </c>
       <c r="I25" s="7">
-        <v>192457</v>
+        <v>88930</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>349</v>
+        <v>378</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>350</v>
+        <v>379</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>351</v>
+        <v>380</v>
       </c>
       <c r="M25" s="7">
-        <v>312</v>
+        <v>163</v>
       </c>
       <c r="N25" s="7">
-        <v>340567</v>
+        <v>171889</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>352</v>
+        <v>381</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>353</v>
+        <v>382</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>354</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5454,49 +5943,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="D26" s="7">
-        <v>43694</v>
+        <v>30297</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>356</v>
+        <v>385</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>357</v>
+        <v>386</v>
       </c>
       <c r="H26" s="7">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I26" s="7">
-        <v>47577</v>
+        <v>28416</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>358</v>
+        <v>387</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>285</v>
+        <v>388</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>359</v>
+        <v>389</v>
       </c>
       <c r="M26" s="7">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="N26" s="7">
-        <v>91271</v>
+        <v>58713</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>360</v>
+        <v>390</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>361</v>
+        <v>391</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>362</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5505,10 +5994,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>503</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>558469</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -5520,10 +6009,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -5535,10 +6024,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1197</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1301444</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -5552,55 +6041,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2187</v>
+        <v>152</v>
       </c>
       <c r="D28" s="7">
-        <v>2339811</v>
+        <v>170135</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>363</v>
+        <v>393</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>364</v>
+        <v>394</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>365</v>
+        <v>395</v>
       </c>
       <c r="H28" s="7">
-        <v>2313</v>
+        <v>240</v>
       </c>
       <c r="I28" s="7">
-        <v>2496706</v>
+        <v>266291</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>366</v>
+        <v>396</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>367</v>
+        <v>397</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>368</v>
+        <v>398</v>
       </c>
       <c r="M28" s="7">
-        <v>4500</v>
+        <v>392</v>
       </c>
       <c r="N28" s="7">
-        <v>4836517</v>
+        <v>436425</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>369</v>
+        <v>399</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>370</v>
+        <v>400</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>371</v>
+        <v>401</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5609,49 +6098,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>815</v>
+        <v>56</v>
       </c>
       <c r="D29" s="7">
-        <v>864025</v>
+        <v>65151</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>372</v>
+        <v>402</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>373</v>
+        <v>403</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>374</v>
+        <v>404</v>
       </c>
       <c r="H29" s="7">
-        <v>762</v>
+        <v>93</v>
       </c>
       <c r="I29" s="7">
-        <v>819907</v>
+        <v>103527</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>375</v>
+        <v>405</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>376</v>
+        <v>406</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>377</v>
+        <v>407</v>
       </c>
       <c r="M29" s="7">
-        <v>1577</v>
+        <v>149</v>
       </c>
       <c r="N29" s="7">
-        <v>1683933</v>
+        <v>168678</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>378</v>
+        <v>408</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>379</v>
+        <v>409</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>380</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5660,49 +6149,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>201</v>
+        <v>13</v>
       </c>
       <c r="D30" s="7">
-        <v>216633</v>
+        <v>13397</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>381</v>
+        <v>411</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>382</v>
+        <v>412</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>383</v>
+        <v>226</v>
       </c>
       <c r="H30" s="7">
-        <v>218</v>
+        <v>17</v>
       </c>
       <c r="I30" s="7">
-        <v>235845</v>
+        <v>19162</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>384</v>
+        <v>413</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>385</v>
+        <v>414</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>386</v>
+        <v>61</v>
       </c>
       <c r="M30" s="7">
-        <v>419</v>
+        <v>30</v>
       </c>
       <c r="N30" s="7">
-        <v>452478</v>
+        <v>32558</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5711,63 +6200,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>221</v>
+      </c>
+      <c r="D31" s="7">
+        <v>248683</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>571</v>
+      </c>
+      <c r="N31" s="7">
+        <v>637662</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2187</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2339811</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>419</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2313</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2496706</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>422</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4500</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4836518</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>815</v>
+      </c>
+      <c r="D33" s="7">
+        <v>864025</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>426</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>427</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="H33" s="7">
+        <v>762</v>
+      </c>
+      <c r="I33" s="7">
+        <v>819907</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>428</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>429</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>430</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1577</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1683933</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>431</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>432</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>201</v>
+      </c>
+      <c r="D34" s="7">
+        <v>216633</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>434</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>435</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>436</v>
+      </c>
+      <c r="H34" s="7">
+        <v>218</v>
+      </c>
+      <c r="I34" s="7">
+        <v>235845</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>437</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>438</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>439</v>
+      </c>
+      <c r="M34" s="7">
+        <v>419</v>
+      </c>
+      <c r="N34" s="7">
+        <v>452478</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>440</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>441</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3203</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3420470</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3293</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3552458</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6496</v>
       </c>
-      <c r="N31" s="7">
-        <v>6972928</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>6972929</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5780,8 +6476,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B73663E2-99DD-4051-BCF0-881231C791A8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2B3B0BA-4F4F-4914-998A-EF36C4CBD3AD}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5797,7 +6493,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>390</v>
+        <v>443</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5904,13 +6600,13 @@
         <v>308520</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>391</v>
+        <v>444</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>392</v>
+        <v>445</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>393</v>
+        <v>446</v>
       </c>
       <c r="H4" s="7">
         <v>282</v>
@@ -5919,13 +6615,13 @@
         <v>273610</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>394</v>
+        <v>447</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>395</v>
+        <v>448</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>396</v>
+        <v>449</v>
       </c>
       <c r="M4" s="7">
         <v>573</v>
@@ -5934,13 +6630,13 @@
         <v>582129</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>397</v>
+        <v>450</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>399</v>
+        <v>451</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5955,13 +6651,13 @@
         <v>85596</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>401</v>
+        <v>453</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>402</v>
+        <v>454</v>
       </c>
       <c r="H5" s="7">
         <v>98</v>
@@ -5970,13 +6666,13 @@
         <v>97334</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>403</v>
+        <v>455</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>404</v>
+        <v>456</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>405</v>
+        <v>457</v>
       </c>
       <c r="M5" s="7">
         <v>177</v>
@@ -5985,13 +6681,13 @@
         <v>182930</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>406</v>
+        <v>458</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>407</v>
+        <v>459</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>408</v>
+        <v>460</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -6006,13 +6702,13 @@
         <v>25347</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>284</v>
+        <v>313</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>409</v>
+        <v>461</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>410</v>
+        <v>462</v>
       </c>
       <c r="H6" s="7">
         <v>24</v>
@@ -6021,13 +6717,13 @@
         <v>24811</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>411</v>
+        <v>463</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>412</v>
+        <v>464</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>413</v>
+        <v>465</v>
       </c>
       <c r="M6" s="7">
         <v>47</v>
@@ -6036,13 +6732,13 @@
         <v>50159</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>414</v>
+        <v>466</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>415</v>
+        <v>467</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>416</v>
+        <v>468</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -6110,13 +6806,13 @@
         <v>399820</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>417</v>
+        <v>469</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>418</v>
+        <v>470</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>419</v>
+        <v>471</v>
       </c>
       <c r="H8" s="7">
         <v>404</v>
@@ -6125,13 +6821,13 @@
         <v>390513</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>420</v>
+        <v>472</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>421</v>
+        <v>473</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>262</v>
+        <v>291</v>
       </c>
       <c r="M8" s="7">
         <v>787</v>
@@ -6140,13 +6836,13 @@
         <v>790332</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>422</v>
+        <v>474</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>423</v>
+        <v>475</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>424</v>
+        <v>476</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6161,13 +6857,13 @@
         <v>162682</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>425</v>
+        <v>477</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>426</v>
+        <v>478</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>427</v>
+        <v>479</v>
       </c>
       <c r="H9" s="7">
         <v>135</v>
@@ -6176,13 +6872,13 @@
         <v>132863</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>321</v>
+        <v>350</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>429</v>
+        <v>481</v>
       </c>
       <c r="M9" s="7">
         <v>293</v>
@@ -6191,13 +6887,13 @@
         <v>295545</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>430</v>
+        <v>482</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>431</v>
+        <v>483</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>432</v>
+        <v>484</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6212,13 +6908,13 @@
         <v>27994</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>433</v>
+        <v>485</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>434</v>
+        <v>486</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>435</v>
+        <v>487</v>
       </c>
       <c r="H10" s="7">
         <v>40</v>
@@ -6227,13 +6923,13 @@
         <v>40169</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>436</v>
+        <v>488</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>437</v>
+        <v>489</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>438</v>
+        <v>490</v>
       </c>
       <c r="M10" s="7">
         <v>66</v>
@@ -6242,13 +6938,13 @@
         <v>68163</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>439</v>
+        <v>491</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>440</v>
+        <v>492</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>441</v>
+        <v>493</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6316,28 +7012,28 @@
         <v>475319</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>442</v>
+        <v>494</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>443</v>
+        <v>495</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>444</v>
+        <v>496</v>
       </c>
       <c r="H12" s="7">
         <v>486</v>
       </c>
       <c r="I12" s="7">
-        <v>482468</v>
+        <v>482469</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>445</v>
+        <v>497</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>318</v>
+        <v>347</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>446</v>
+        <v>498</v>
       </c>
       <c r="M12" s="7">
         <v>943</v>
@@ -6346,13 +7042,13 @@
         <v>957787</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>447</v>
+        <v>499</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>448</v>
+        <v>500</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>449</v>
+        <v>501</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6367,13 +7063,13 @@
         <v>158395</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>450</v>
+        <v>502</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>400</v>
+        <v>452</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>451</v>
+        <v>503</v>
       </c>
       <c r="H13" s="7">
         <v>135</v>
@@ -6382,13 +7078,13 @@
         <v>133343</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>452</v>
+        <v>504</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>453</v>
+        <v>505</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>454</v>
+        <v>506</v>
       </c>
       <c r="M13" s="7">
         <v>283</v>
@@ -6397,13 +7093,13 @@
         <v>291738</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>455</v>
+        <v>507</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>456</v>
+        <v>508</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>457</v>
+        <v>509</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6418,13 +7114,13 @@
         <v>35384</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>458</v>
+        <v>510</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>459</v>
+        <v>511</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>315</v>
       </c>
       <c r="H14" s="7">
         <v>43</v>
@@ -6433,13 +7129,13 @@
         <v>44499</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>460</v>
+        <v>512</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>461</v>
+        <v>513</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
@@ -6448,13 +7144,13 @@
         <v>79882</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>462</v>
+        <v>514</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>463</v>
+        <v>515</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>464</v>
+        <v>516</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6481,7 +7177,7 @@
         <v>664</v>
       </c>
       <c r="I15" s="7">
-        <v>660310</v>
+        <v>660311</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -6522,13 +7218,13 @@
         <v>461013</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>465</v>
+        <v>517</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="H16" s="7">
         <v>425</v>
@@ -6537,13 +7233,13 @@
         <v>456239</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M16" s="7">
         <v>839</v>
@@ -6552,13 +7248,13 @@
         <v>917252</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6573,13 +7269,13 @@
         <v>157488</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>271</v>
+        <v>300</v>
       </c>
       <c r="H17" s="7">
         <v>136</v>
@@ -6588,13 +7284,13 @@
         <v>148321</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M17" s="7">
         <v>280</v>
@@ -6603,13 +7299,13 @@
         <v>305809</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>480</v>
+        <v>532</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>481</v>
+        <v>533</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6624,13 +7320,13 @@
         <v>25191</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>482</v>
+        <v>534</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>483</v>
+        <v>535</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>484</v>
+        <v>536</v>
       </c>
       <c r="H18" s="7">
         <v>40</v>
@@ -6639,13 +7335,13 @@
         <v>42714</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>485</v>
+        <v>391</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>486</v>
+        <v>537</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>487</v>
+        <v>538</v>
       </c>
       <c r="M18" s="7">
         <v>62</v>
@@ -6654,13 +7350,13 @@
         <v>67905</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>488</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>489</v>
+        <v>540</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>490</v>
+        <v>541</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6728,13 +7424,13 @@
         <v>344489</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>491</v>
+        <v>542</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>492</v>
+        <v>543</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>493</v>
+        <v>544</v>
       </c>
       <c r="H20" s="7">
         <v>313</v>
@@ -6743,13 +7439,13 @@
         <v>357615</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>494</v>
+        <v>401</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>495</v>
+        <v>545</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>496</v>
+        <v>546</v>
       </c>
       <c r="M20" s="7">
         <v>619</v>
@@ -6758,13 +7454,13 @@
         <v>702104</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>497</v>
+        <v>547</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>498</v>
+        <v>548</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>499</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6779,13 +7475,13 @@
         <v>102403</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>501</v>
+        <v>551</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>502</v>
+        <v>552</v>
       </c>
       <c r="H21" s="7">
         <v>90</v>
@@ -6794,13 +7490,13 @@
         <v>103608</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>503</v>
+        <v>553</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>504</v>
+        <v>554</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>505</v>
+        <v>555</v>
       </c>
       <c r="M21" s="7">
         <v>181</v>
@@ -6809,13 +7505,13 @@
         <v>206011</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>506</v>
+        <v>556</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>507</v>
+        <v>557</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>508</v>
+        <v>558</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6830,10 +7526,10 @@
         <v>31025</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>387</v>
+        <v>440</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>509</v>
+        <v>559</v>
       </c>
       <c r="G22" s="7" t="s">
         <v>67</v>
@@ -6845,13 +7541,13 @@
         <v>35626</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>389</v>
+        <v>442</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>510</v>
+        <v>560</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>511</v>
+        <v>561</v>
       </c>
       <c r="M22" s="7">
         <v>57</v>
@@ -6860,13 +7556,13 @@
         <v>66651</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>512</v>
+        <v>562</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>513</v>
+        <v>563</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>362</v>
+        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6928,49 +7624,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>446</v>
+        <v>234</v>
       </c>
       <c r="D24" s="7">
-        <v>420004</v>
+        <v>238973</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>514</v>
+        <v>565</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>515</v>
+        <v>566</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>516</v>
+        <v>240</v>
       </c>
       <c r="H24" s="7">
-        <v>478</v>
+        <v>260</v>
       </c>
       <c r="I24" s="7">
-        <v>565543</v>
+        <v>277150</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>320</v>
+        <v>567</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>517</v>
+        <v>568</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>518</v>
+        <v>569</v>
       </c>
       <c r="M24" s="7">
-        <v>924</v>
+        <v>494</v>
       </c>
       <c r="N24" s="7">
-        <v>985547</v>
+        <v>516123</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>519</v>
+        <v>570</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>420</v>
+        <v>571</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>444</v>
+        <v>572</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6979,49 +7675,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>151</v>
+        <v>76</v>
       </c>
       <c r="D25" s="7">
-        <v>143274</v>
+        <v>80398</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>520</v>
+        <v>573</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>521</v>
+        <v>574</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>522</v>
+        <v>575</v>
       </c>
       <c r="H25" s="7">
-        <v>138</v>
+        <v>72</v>
       </c>
       <c r="I25" s="7">
-        <v>165606</v>
+        <v>77440</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>523</v>
+        <v>353</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>524</v>
+        <v>576</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>525</v>
+        <v>577</v>
       </c>
       <c r="M25" s="7">
-        <v>289</v>
+        <v>148</v>
       </c>
       <c r="N25" s="7">
-        <v>308880</v>
+        <v>157837</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>526</v>
+        <v>578</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>527</v>
+        <v>579</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>528</v>
+        <v>580</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -7030,49 +7726,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="D26" s="7">
-        <v>28050</v>
+        <v>14960</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>433</v>
+        <v>559</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>529</v>
+        <v>581</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>387</v>
+        <v>582</v>
       </c>
       <c r="H26" s="7">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="I26" s="7">
-        <v>43503</v>
+        <v>21164</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>530</v>
+        <v>583</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>531</v>
+        <v>584</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>532</v>
+        <v>585</v>
       </c>
       <c r="M26" s="7">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="N26" s="7">
-        <v>71553</v>
+        <v>36123</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>533</v>
+        <v>586</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>534</v>
+        <v>587</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>535</v>
+        <v>588</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7081,10 +7777,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -7096,10 +7792,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>652</v>
+        <v>352</v>
       </c>
       <c r="I27" s="7">
-        <v>774652</v>
+        <v>375754</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -7111,10 +7807,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>1279</v>
+        <v>677</v>
       </c>
       <c r="N27" s="7">
-        <v>1365980</v>
+        <v>710084</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -7128,55 +7824,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2297</v>
+        <v>212</v>
       </c>
       <c r="D28" s="7">
-        <v>2409164</v>
+        <v>181031</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>514</v>
+        <v>589</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>536</v>
+        <v>590</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>537</v>
+        <v>591</v>
       </c>
       <c r="H28" s="7">
-        <v>2388</v>
+        <v>218</v>
       </c>
       <c r="I28" s="7">
-        <v>2525987</v>
+        <v>288392</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>538</v>
+        <v>592</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>539</v>
+        <v>593</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>540</v>
+        <v>594</v>
       </c>
       <c r="M28" s="7">
-        <v>4685</v>
+        <v>430</v>
       </c>
       <c r="N28" s="7">
-        <v>4935152</v>
+        <v>469424</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>541</v>
+        <v>595</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>264</v>
+        <v>596</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>542</v>
+        <v>597</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -7185,49 +7881,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>771</v>
+        <v>75</v>
       </c>
       <c r="D29" s="7">
-        <v>809838</v>
+        <v>62877</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>543</v>
+        <v>526</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>544</v>
+        <v>598</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>545</v>
+        <v>599</v>
       </c>
       <c r="H29" s="7">
-        <v>732</v>
+        <v>66</v>
       </c>
       <c r="I29" s="7">
-        <v>781075</v>
+        <v>88166</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>546</v>
+        <v>600</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>547</v>
+        <v>601</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>548</v>
+        <v>602</v>
       </c>
       <c r="M29" s="7">
-        <v>1503</v>
+        <v>141</v>
       </c>
       <c r="N29" s="7">
-        <v>1590913</v>
+        <v>151043</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>549</v>
+        <v>603</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>550</v>
+        <v>604</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>551</v>
+        <v>605</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -7236,49 +7932,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>161</v>
+        <v>15</v>
       </c>
       <c r="D30" s="7">
-        <v>172992</v>
+        <v>13090</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>552</v>
+        <v>586</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>553</v>
+        <v>606</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>484</v>
+        <v>607</v>
       </c>
       <c r="H30" s="7">
-        <v>213</v>
+        <v>16</v>
       </c>
       <c r="I30" s="7">
-        <v>231322</v>
+        <v>22339</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>554</v>
+        <v>608</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>555</v>
+        <v>609</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>38</v>
+        <v>202</v>
       </c>
       <c r="M30" s="7">
-        <v>374</v>
+        <v>31</v>
       </c>
       <c r="N30" s="7">
-        <v>404314</v>
+        <v>35429</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>232</v>
+        <v>610</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>556</v>
+        <v>611</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>557</v>
+        <v>612</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -7287,63 +7983,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>300</v>
+      </c>
+      <c r="I31" s="7">
+        <v>398898</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>602</v>
+      </c>
+      <c r="N31" s="7">
+        <v>655896</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2297</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2409164</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>613</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>615</v>
+      </c>
+      <c r="H32" s="7">
+        <v>2388</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2525987</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>617</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="M32" s="7">
+        <v>4685</v>
+      </c>
+      <c r="N32" s="7">
+        <v>4935152</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>619</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>771</v>
+      </c>
+      <c r="D33" s="7">
+        <v>809838</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>621</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="H33" s="7">
+        <v>732</v>
+      </c>
+      <c r="I33" s="7">
+        <v>781075</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>625</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1503</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1590913</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>627</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>161</v>
+      </c>
+      <c r="D34" s="7">
+        <v>172992</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>631</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>536</v>
+      </c>
+      <c r="H34" s="7">
+        <v>213</v>
+      </c>
+      <c r="I34" s="7">
+        <v>231322</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>633</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="7">
+        <v>374</v>
+      </c>
+      <c r="N34" s="7">
+        <v>404314</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3229</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>3391994</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>3333</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>3538384</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>6562</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>6930378</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -7356,8 +8259,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{29ECDCCC-89EA-460E-B233-7720F2DA87A8}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{479FF64A-AE28-4697-A65E-57DCF541BFF3}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -7373,7 +8276,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>558</v>
+        <v>636</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -7477,46 +8380,46 @@
         <v>141</v>
       </c>
       <c r="D4" s="7">
-        <v>309344</v>
+        <v>330654</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>559</v>
+        <v>637</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>560</v>
+        <v>638</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>561</v>
+        <v>639</v>
       </c>
       <c r="H4" s="7">
         <v>146</v>
       </c>
       <c r="I4" s="7">
-        <v>243864</v>
+        <v>214755</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>562</v>
+        <v>322</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>563</v>
+        <v>640</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>564</v>
+        <v>641</v>
       </c>
       <c r="M4" s="7">
         <v>287</v>
       </c>
       <c r="N4" s="7">
-        <v>553208</v>
+        <v>545409</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>565</v>
+        <v>642</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>566</v>
+        <v>643</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>567</v>
+        <v>644</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -7528,46 +8431,46 @@
         <v>23</v>
       </c>
       <c r="D5" s="7">
-        <v>53373</v>
+        <v>54590</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>568</v>
+        <v>645</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>413</v>
+        <v>646</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>569</v>
+        <v>647</v>
       </c>
       <c r="H5" s="7">
         <v>42</v>
       </c>
       <c r="I5" s="7">
-        <v>80769</v>
+        <v>71696</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>570</v>
+        <v>648</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>571</v>
+        <v>649</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>572</v>
+        <v>650</v>
       </c>
       <c r="M5" s="7">
         <v>65</v>
       </c>
       <c r="N5" s="7">
-        <v>134142</v>
+        <v>126286</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>573</v>
+        <v>651</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>574</v>
+        <v>652</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>575</v>
+        <v>653</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -7579,46 +8482,46 @@
         <v>8</v>
       </c>
       <c r="D6" s="7">
-        <v>14962</v>
+        <v>14743</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>576</v>
+        <v>654</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>577</v>
+        <v>655</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>578</v>
+        <v>656</v>
       </c>
       <c r="H6" s="7">
         <v>19</v>
       </c>
       <c r="I6" s="7">
-        <v>30324</v>
+        <v>26749</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>579</v>
+        <v>657</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>552</v>
+        <v>658</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>199</v>
+        <v>659</v>
       </c>
       <c r="M6" s="7">
         <v>27</v>
       </c>
       <c r="N6" s="7">
-        <v>45286</v>
+        <v>41492</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>580</v>
+        <v>660</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>581</v>
+        <v>661</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>582</v>
+        <v>662</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -7630,7 +8533,7 @@
         <v>172</v>
       </c>
       <c r="D7" s="7">
-        <v>377679</v>
+        <v>399987</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>40</v>
@@ -7645,7 +8548,7 @@
         <v>207</v>
       </c>
       <c r="I7" s="7">
-        <v>354957</v>
+        <v>313200</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>40</v>
@@ -7660,7 +8563,7 @@
         <v>379</v>
       </c>
       <c r="N7" s="7">
-        <v>732636</v>
+        <v>713187</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>40</v>
@@ -7683,46 +8586,46 @@
         <v>221</v>
       </c>
       <c r="D8" s="7">
-        <v>314999</v>
+        <v>314375</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>583</v>
+        <v>663</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>584</v>
+        <v>664</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>585</v>
+        <v>665</v>
       </c>
       <c r="H8" s="7">
         <v>369</v>
       </c>
       <c r="I8" s="7">
-        <v>399587</v>
+        <v>423976</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>586</v>
+        <v>666</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>587</v>
+        <v>667</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>588</v>
+        <v>668</v>
       </c>
       <c r="M8" s="7">
         <v>590</v>
       </c>
       <c r="N8" s="7">
-        <v>714586</v>
+        <v>738351</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>589</v>
+        <v>669</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>590</v>
+        <v>670</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>591</v>
+        <v>671</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -7734,46 +8637,46 @@
         <v>64</v>
       </c>
       <c r="D9" s="7">
-        <v>88233</v>
+        <v>84510</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>592</v>
+        <v>672</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>593</v>
+        <v>673</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>594</v>
+        <v>674</v>
       </c>
       <c r="H9" s="7">
         <v>68</v>
       </c>
       <c r="I9" s="7">
-        <v>71255</v>
+        <v>63064</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>595</v>
+        <v>675</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>596</v>
+        <v>676</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>597</v>
+        <v>677</v>
       </c>
       <c r="M9" s="7">
         <v>132</v>
       </c>
       <c r="N9" s="7">
-        <v>159489</v>
+        <v>147574</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>598</v>
+        <v>91</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>599</v>
+        <v>678</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>600</v>
+        <v>679</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -7785,46 +8688,46 @@
         <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>25163</v>
+        <v>24662</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>385</v>
+        <v>660</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>601</v>
+        <v>680</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>602</v>
+        <v>681</v>
       </c>
       <c r="H10" s="7">
         <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>28373</v>
+        <v>25053</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>603</v>
+        <v>515</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>604</v>
+        <v>682</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>605</v>
+        <v>172</v>
       </c>
       <c r="M10" s="7">
         <v>41</v>
       </c>
       <c r="N10" s="7">
-        <v>53536</v>
+        <v>49715</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>606</v>
+        <v>683</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>607</v>
+        <v>661</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>608</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -7836,7 +8739,7 @@
         <v>302</v>
       </c>
       <c r="D11" s="7">
-        <v>428396</v>
+        <v>423547</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>40</v>
@@ -7851,7 +8754,7 @@
         <v>461</v>
       </c>
       <c r="I11" s="7">
-        <v>499215</v>
+        <v>512093</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>40</v>
@@ -7866,7 +8769,7 @@
         <v>763</v>
       </c>
       <c r="N11" s="7">
-        <v>927611</v>
+        <v>935640</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>40</v>
@@ -7889,46 +8792,46 @@
         <v>430</v>
       </c>
       <c r="D12" s="7">
-        <v>428994</v>
+        <v>415243</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>609</v>
+        <v>685</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>610</v>
+        <v>522</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>611</v>
+        <v>686</v>
       </c>
       <c r="H12" s="7">
         <v>668</v>
       </c>
       <c r="I12" s="7">
-        <v>480051</v>
+        <v>473223</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>612</v>
+        <v>687</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>496</v>
+        <v>688</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>613</v>
+        <v>689</v>
       </c>
       <c r="M12" s="7">
         <v>1098</v>
       </c>
       <c r="N12" s="7">
-        <v>909045</v>
+        <v>888466</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>614</v>
+        <v>690</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>615</v>
+        <v>691</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>616</v>
+        <v>692</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -7940,46 +8843,46 @@
         <v>89</v>
       </c>
       <c r="D13" s="7">
-        <v>101267</v>
+        <v>95288</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>617</v>
+        <v>176</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>618</v>
+        <v>693</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>619</v>
+        <v>694</v>
       </c>
       <c r="H13" s="7">
         <v>126</v>
       </c>
       <c r="I13" s="7">
-        <v>90156</v>
+        <v>82154</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>620</v>
+        <v>695</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>621</v>
+        <v>696</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>622</v>
+        <v>697</v>
       </c>
       <c r="M13" s="7">
         <v>215</v>
       </c>
       <c r="N13" s="7">
-        <v>191423</v>
+        <v>177442</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>623</v>
+        <v>91</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>624</v>
+        <v>698</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>625</v>
+        <v>699</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -7991,46 +8894,46 @@
         <v>24</v>
       </c>
       <c r="D14" s="7">
-        <v>25622</v>
+        <v>24458</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>626</v>
+        <v>492</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>627</v>
+        <v>700</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>628</v>
+        <v>701</v>
       </c>
       <c r="H14" s="7">
         <v>52</v>
       </c>
       <c r="I14" s="7">
-        <v>38439</v>
+        <v>35038</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>629</v>
+        <v>441</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>630</v>
+        <v>702</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>171</v>
+        <v>703</v>
       </c>
       <c r="M14" s="7">
         <v>76</v>
       </c>
       <c r="N14" s="7">
-        <v>64061</v>
+        <v>59497</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>631</v>
+        <v>510</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>632</v>
+        <v>704</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>633</v>
+        <v>705</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -8042,7 +8945,7 @@
         <v>543</v>
       </c>
       <c r="D15" s="7">
-        <v>555883</v>
+        <v>534990</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>40</v>
@@ -8057,7 +8960,7 @@
         <v>846</v>
       </c>
       <c r="I15" s="7">
-        <v>608646</v>
+        <v>590415</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>40</v>
@@ -8072,7 +8975,7 @@
         <v>1389</v>
       </c>
       <c r="N15" s="7">
-        <v>1164529</v>
+        <v>1125405</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>40</v>
@@ -8095,46 +8998,46 @@
         <v>511</v>
       </c>
       <c r="D16" s="7">
-        <v>564543</v>
+        <v>734716</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>634</v>
+        <v>706</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>635</v>
+        <v>707</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>636</v>
+        <v>708</v>
       </c>
       <c r="H16" s="7">
         <v>870</v>
       </c>
       <c r="I16" s="7">
-        <v>562660</v>
+        <v>544709</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>637</v>
+        <v>709</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>638</v>
+        <v>710</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>639</v>
+        <v>711</v>
       </c>
       <c r="M16" s="7">
         <v>1381</v>
       </c>
       <c r="N16" s="7">
-        <v>1127204</v>
+        <v>1279425</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>640</v>
+        <v>712</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>641</v>
+        <v>713</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>642</v>
+        <v>714</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -8146,46 +9049,46 @@
         <v>114</v>
       </c>
       <c r="D17" s="7">
-        <v>115302</v>
+        <v>107347</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>643</v>
+        <v>715</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>644</v>
+        <v>716</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>645</v>
+        <v>717</v>
       </c>
       <c r="H17" s="7">
         <v>207</v>
       </c>
       <c r="I17" s="7">
-        <v>142713</v>
+        <v>129647</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>646</v>
+        <v>718</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>647</v>
+        <v>719</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>249</v>
+        <v>720</v>
       </c>
       <c r="M17" s="7">
         <v>321</v>
       </c>
       <c r="N17" s="7">
-        <v>258015</v>
+        <v>236994</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>648</v>
+        <v>721</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>649</v>
+        <v>722</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>650</v>
+        <v>723</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -8197,46 +9100,46 @@
         <v>40</v>
       </c>
       <c r="D18" s="7">
-        <v>44145</v>
+        <v>45723</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>651</v>
+        <v>724</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>412</v>
+        <v>725</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>259</v>
+        <v>726</v>
       </c>
       <c r="H18" s="7">
         <v>64</v>
       </c>
       <c r="I18" s="7">
-        <v>41888</v>
+        <v>38525</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>652</v>
+        <v>610</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>653</v>
+        <v>727</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>389</v>
+        <v>728</v>
       </c>
       <c r="M18" s="7">
         <v>104</v>
       </c>
       <c r="N18" s="7">
-        <v>86033</v>
+        <v>84248</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>654</v>
+        <v>539</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>655</v>
+        <v>729</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>656</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -8248,7 +9151,7 @@
         <v>665</v>
       </c>
       <c r="D19" s="7">
-        <v>723990</v>
+        <v>887786</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>40</v>
@@ -8263,7 +9166,7 @@
         <v>1141</v>
       </c>
       <c r="I19" s="7">
-        <v>747261</v>
+        <v>712881</v>
       </c>
       <c r="J19" s="7" t="s">
         <v>40</v>
@@ -8278,7 +9181,7 @@
         <v>1806</v>
       </c>
       <c r="N19" s="7">
-        <v>1471252</v>
+        <v>1600667</v>
       </c>
       <c r="O19" s="7" t="s">
         <v>40</v>
@@ -8301,46 +9204,46 @@
         <v>520</v>
       </c>
       <c r="D20" s="7">
-        <v>466792</v>
+        <v>437694</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>657</v>
+        <v>730</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>658</v>
+        <v>731</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>659</v>
+        <v>732</v>
       </c>
       <c r="H20" s="7">
         <v>786</v>
       </c>
       <c r="I20" s="7">
-        <v>458734</v>
+        <v>422919</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>660</v>
+        <v>733</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>661</v>
+        <v>734</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>662</v>
+        <v>735</v>
       </c>
       <c r="M20" s="7">
         <v>1306</v>
       </c>
       <c r="N20" s="7">
-        <v>925525</v>
+        <v>860613</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>663</v>
+        <v>736</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>664</v>
+        <v>737</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>665</v>
+        <v>738</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -8352,46 +9255,46 @@
         <v>104</v>
       </c>
       <c r="D21" s="7">
-        <v>98501</v>
+        <v>91079</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>623</v>
+        <v>739</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>666</v>
+        <v>740</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>667</v>
+        <v>741</v>
       </c>
       <c r="H21" s="7">
         <v>146</v>
       </c>
       <c r="I21" s="7">
-        <v>94334</v>
+        <v>84809</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>668</v>
+        <v>742</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>669</v>
+        <v>743</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>573</v>
+        <v>744</v>
       </c>
       <c r="M21" s="7">
         <v>250</v>
       </c>
       <c r="N21" s="7">
-        <v>192835</v>
+        <v>175888</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>670</v>
+        <v>745</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>36</v>
+        <v>746</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>671</v>
+        <v>747</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -8403,46 +9306,46 @@
         <v>38</v>
       </c>
       <c r="D22" s="7">
-        <v>33985</v>
+        <v>31627</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>672</v>
+        <v>748</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>673</v>
+        <v>749</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>674</v>
+        <v>750</v>
       </c>
       <c r="H22" s="7">
         <v>68</v>
       </c>
       <c r="I22" s="7">
-        <v>42667</v>
+        <v>38945</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>675</v>
+        <v>199</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>530</v>
+        <v>751</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>676</v>
+        <v>662</v>
       </c>
       <c r="M22" s="7">
         <v>106</v>
       </c>
       <c r="N22" s="7">
-        <v>76652</v>
+        <v>70571</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>557</v>
+        <v>364</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>677</v>
+        <v>539</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>678</v>
+        <v>752</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -8454,7 +9357,7 @@
         <v>662</v>
       </c>
       <c r="D23" s="7">
-        <v>599278</v>
+        <v>560399</v>
       </c>
       <c r="E23" s="7" t="s">
         <v>40</v>
@@ -8469,7 +9372,7 @@
         <v>1000</v>
       </c>
       <c r="I23" s="7">
-        <v>595735</v>
+        <v>546673</v>
       </c>
       <c r="J23" s="7" t="s">
         <v>40</v>
@@ -8484,7 +9387,7 @@
         <v>1662</v>
       </c>
       <c r="N23" s="7">
-        <v>1195012</v>
+        <v>1107072</v>
       </c>
       <c r="O23" s="7" t="s">
         <v>40</v>
@@ -8504,49 +9407,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>780</v>
+        <v>433</v>
       </c>
       <c r="D24" s="7">
-        <v>527501</v>
+        <v>280248</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>679</v>
+        <v>753</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>680</v>
+        <v>754</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>681</v>
+        <v>755</v>
       </c>
       <c r="H24" s="7">
-        <v>1370</v>
+        <v>655</v>
       </c>
       <c r="I24" s="7">
-        <v>715207</v>
+        <v>315583</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>682</v>
+        <v>756</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>683</v>
+        <v>757</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>684</v>
+        <v>758</v>
       </c>
       <c r="M24" s="7">
-        <v>2150</v>
+        <v>1088</v>
       </c>
       <c r="N24" s="7">
-        <v>1242708</v>
+        <v>595831</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>685</v>
+        <v>759</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>686</v>
+        <v>760</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>687</v>
+        <v>761</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -8555,49 +9458,49 @@
         <v>20</v>
       </c>
       <c r="C25" s="7">
-        <v>197</v>
+        <v>104</v>
       </c>
       <c r="D25" s="7">
-        <v>137288</v>
+        <v>67736</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>149</v>
+        <v>762</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>688</v>
+        <v>763</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>689</v>
+        <v>764</v>
       </c>
       <c r="H25" s="7">
-        <v>267</v>
+        <v>131</v>
       </c>
       <c r="I25" s="7">
-        <v>269737</v>
+        <v>272189</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>250</v>
+        <v>765</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>690</v>
+        <v>147</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>691</v>
+        <v>766</v>
       </c>
       <c r="M25" s="7">
-        <v>464</v>
+        <v>235</v>
       </c>
       <c r="N25" s="7">
-        <v>407025</v>
+        <v>339925</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>692</v>
+        <v>767</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>693</v>
+        <v>649</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>694</v>
+        <v>589</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -8606,49 +9509,49 @@
         <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>51</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7">
-        <v>32965</v>
+        <v>20181</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>695</v>
+        <v>768</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>696</v>
+        <v>769</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>697</v>
+        <v>656</v>
       </c>
       <c r="H26" s="7">
-        <v>71</v>
+        <v>41</v>
       </c>
       <c r="I26" s="7">
-        <v>41693</v>
+        <v>20596</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>489</v>
+        <v>770</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>698</v>
+        <v>771</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>699</v>
+        <v>772</v>
       </c>
       <c r="M26" s="7">
-        <v>122</v>
+        <v>74</v>
       </c>
       <c r="N26" s="7">
-        <v>74659</v>
+        <v>40777</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>700</v>
+        <v>702</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>701</v>
+        <v>773</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>702</v>
+        <v>774</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -8657,10 +9560,10 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1028</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>697754</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
         <v>40</v>
@@ -8672,10 +9575,10 @@
         <v>40</v>
       </c>
       <c r="H27" s="7">
-        <v>1708</v>
+        <v>827</v>
       </c>
       <c r="I27" s="7">
-        <v>1026637</v>
+        <v>608368</v>
       </c>
       <c r="J27" s="7" t="s">
         <v>40</v>
@@ -8687,10 +9590,10 @@
         <v>40</v>
       </c>
       <c r="M27" s="7">
-        <v>2736</v>
+        <v>1397</v>
       </c>
       <c r="N27" s="7">
-        <v>1724392</v>
+        <v>976533</v>
       </c>
       <c r="O27" s="7" t="s">
         <v>40</v>
@@ -8704,55 +9607,55 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>180</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>2603</v>
+        <v>347</v>
       </c>
       <c r="D28" s="7">
-        <v>2612174</v>
+        <v>213330</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>703</v>
+        <v>775</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>679</v>
+        <v>776</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>704</v>
+        <v>777</v>
       </c>
       <c r="H28" s="7">
-        <v>4209</v>
+        <v>715</v>
       </c>
       <c r="I28" s="7">
-        <v>2860102</v>
+        <v>336242</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>705</v>
+        <v>778</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>706</v>
+        <v>572</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>707</v>
+        <v>779</v>
       </c>
       <c r="M28" s="7">
-        <v>6812</v>
+        <v>1062</v>
       </c>
       <c r="N28" s="7">
-        <v>5472276</v>
+        <v>549573</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>708</v>
+        <v>780</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>709</v>
+        <v>781</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>710</v>
+        <v>712</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -8761,49 +9664,49 @@
         <v>20</v>
       </c>
       <c r="C29" s="7">
-        <v>591</v>
+        <v>93</v>
       </c>
       <c r="D29" s="7">
-        <v>593964</v>
+        <v>58836</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>711</v>
+        <v>782</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>712</v>
+        <v>783</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>713</v>
+        <v>784</v>
       </c>
       <c r="H29" s="7">
-        <v>856</v>
+        <v>136</v>
       </c>
       <c r="I29" s="7">
-        <v>748964</v>
+        <v>73120</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>714</v>
+        <v>785</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>715</v>
+        <v>786</v>
       </c>
       <c r="M29" s="7">
-        <v>1447</v>
+        <v>229</v>
       </c>
       <c r="N29" s="7">
-        <v>1342929</v>
+        <v>131956</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>716</v>
+        <v>787</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>717</v>
+        <v>788</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>718</v>
+        <v>789</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -8812,49 +9715,49 @@
         <v>30</v>
       </c>
       <c r="C30" s="7">
-        <v>178</v>
+        <v>18</v>
       </c>
       <c r="D30" s="7">
-        <v>176842</v>
+        <v>10593</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>719</v>
+        <v>790</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>700</v>
+        <v>791</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>720</v>
+        <v>792</v>
       </c>
       <c r="H30" s="7">
-        <v>298</v>
+        <v>30</v>
       </c>
       <c r="I30" s="7">
-        <v>223384</v>
+        <v>16469</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>232</v>
+        <v>793</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>721</v>
+        <v>794</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>722</v>
+        <v>795</v>
       </c>
       <c r="M30" s="7">
-        <v>476</v>
+        <v>48</v>
       </c>
       <c r="N30" s="7">
-        <v>400226</v>
+        <v>27062</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>723</v>
+        <v>796</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>724</v>
+        <v>797</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>725</v>
+        <v>630</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -8863,63 +9766,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>458</v>
+      </c>
+      <c r="D31" s="7">
+        <v>282759</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H31" s="7">
+        <v>881</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425831</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1339</v>
+      </c>
+      <c r="N31" s="7">
+        <v>708590</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>2603</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2726260</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>798</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>800</v>
+      </c>
+      <c r="H32" s="7">
+        <v>4209</v>
+      </c>
+      <c r="I32" s="7">
+        <v>2731407</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>802</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="M32" s="7">
+        <v>6812</v>
+      </c>
+      <c r="N32" s="7">
+        <v>5457668</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>804</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C33" s="7">
+        <v>591</v>
+      </c>
+      <c r="D33" s="7">
+        <v>559387</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>806</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>808</v>
+      </c>
+      <c r="H33" s="7">
+        <v>856</v>
+      </c>
+      <c r="I33" s="7">
+        <v>776678</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>810</v>
+      </c>
+      <c r="M33" s="7">
+        <v>1447</v>
+      </c>
+      <c r="N33" s="7">
+        <v>1336065</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>812</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C34" s="7">
+        <v>178</v>
+      </c>
+      <c r="D34" s="7">
+        <v>171987</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>661</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>814</v>
+      </c>
+      <c r="H34" s="7">
+        <v>298</v>
+      </c>
+      <c r="I34" s="7">
+        <v>201375</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>816</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="M34" s="7">
+        <v>476</v>
+      </c>
+      <c r="N34" s="7">
+        <v>373362</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>818</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>819</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>3372</v>
       </c>
-      <c r="D31" s="7">
-        <v>3382980</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>3457634</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="H35" s="7">
         <v>5363</v>
       </c>
-      <c r="I31" s="7">
-        <v>3832451</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>3709460</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="M35" s="7">
         <v>8735</v>
       </c>
-      <c r="N31" s="7">
-        <v>7215431</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>204</v>
+      <c r="N35" s="7">
+        <v>7167095</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
